--- a/Excel/Planilhas Principais/Geral/Cidades.xlsx
+++ b/Excel/Planilhas Principais/Geral/Cidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\Planilhas\Geral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Excel\Planilhas Principais\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBAF977-2B9A-4D16-9341-9171171A287A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD074F-7562-44EB-943E-A64D0B203A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="553" activeTab="5" xr2:uid="{51F6867F-8A48-4995-8FC3-7BEADC66E74C}"/>
+    <workbookView xWindow="14100" yWindow="6984" windowWidth="17280" windowHeight="8964" tabRatio="553" firstSheet="3" activeTab="5" xr2:uid="{51F6867F-8A48-4995-8FC3-7BEADC66E74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cidades" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="Espécies" sheetId="6" r:id="rId4"/>
     <sheet name="Registros" sheetId="7" r:id="rId5"/>
     <sheet name="Geral" sheetId="9" r:id="rId6"/>
-    <sheet name="WAVxSPL" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Estatísticas" sheetId="10" r:id="rId7"/>
+    <sheet name="WAVxSPL" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Cidades!$E$2:$E$174</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Cidades!$C$2:$C$174</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Cidades!$C$2:$C$174</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Cidades!$E$2:$E$174</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Cidades!$D$2:$D$174</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Cidades!$B$2:$B$174</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Log10!$B$2:$B$174</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Log10!$E$2:$E$174</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Log10!$C$2:$C$174</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Log10!$D$2:$D$174</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Log10!$E$2:$E$174</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Log10!$D$2:$D$174</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Log10!$B$2:$B$174</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Log10!$C$2:$C$174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="291">
   <si>
     <t>Cidades</t>
   </si>
@@ -858,6 +859,63 @@
   <si>
     <t>(2,4526, 2,7923)</t>
   </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>W2R</t>
+  </si>
+  <si>
+    <t>W2E</t>
+  </si>
+  <si>
+    <t>Equation: -0,15x2+1,261x-0,1016</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares Regression: WR-WE</t>
+  </si>
+  <si>
+    <t>(0,57304, 0,6864)</t>
+  </si>
+  <si>
+    <t>(0,29605, 0,57234)</t>
+  </si>
+  <si>
+    <t>SLI</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares Regression: SR-SE</t>
+  </si>
+  <si>
+    <t>(0,68453, 0,75538)</t>
+  </si>
+  <si>
+    <t>(0,082015, 0,14302)</t>
+  </si>
+  <si>
+    <t>WAV2</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares Regression: W2R-W2E</t>
+  </si>
+  <si>
+    <t>(0,35, 0,49304)</t>
+  </si>
+  <si>
+    <t>(0,77269, 1,2193)</t>
+  </si>
+  <si>
+    <t>Equation: -0,1559x2+1,288x-0,1203</t>
+  </si>
 </sst>
 </file>
 
@@ -940,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1006,6 +1064,8 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,7 +1635,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1701,7 +1761,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1764,7 +1824,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1827,7 +1887,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1893,7 +1953,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1956,7 +2016,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8312,16 +8372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>451485</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8344,7 +8404,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16916400" y="2392680"/>
+          <a:off x="16550640" y="2430780"/>
           <a:ext cx="3629025" cy="3295650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17184,8 +17244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3400D45A-9A0F-4632-AF62-A7D8ABC8A1A6}">
   <dimension ref="B1:AM118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18074,7 +18134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FDC1B-F575-4BED-87B5-EF405F6C0366}">
   <dimension ref="A1:X174"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="J13" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -22286,7 +22346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D1DD3-AE62-4F43-94F3-958560B6FBF6}">
   <dimension ref="A1:X174"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -26521,8 +26581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED3E03C-0B6B-4432-A356-EF5D7F049FF9}">
   <dimension ref="A2:AG653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44066,11 +44126,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:O194">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>$Q$27</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>$Q$26</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
-      <formula>$Q$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:V51">
@@ -44090,11 +44150,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23:AE653">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$AG$28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$AG$27</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$AG$28</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -44108,6 +44168,7335 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA74838-02AC-4040-9E4B-3769B12829ED}">
+  <dimension ref="A1:X621"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
+        <v>282</v>
+      </c>
+      <c r="T1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="31">
+        <v>1.397940009</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1.301029996</v>
+      </c>
+      <c r="E2">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="F2">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N2" t="s">
+        <v>203</v>
+      </c>
+      <c r="T2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.69019608</v>
+      </c>
+      <c r="D3">
+        <v>1.6334684559999999</v>
+      </c>
+      <c r="E3">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="F3">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.591</v>
+      </c>
+      <c r="B4">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="C4" s="31">
+        <v>2.322219295</v>
+      </c>
+      <c r="D4" s="31">
+        <v>2.0644579890000001</v>
+      </c>
+      <c r="E4">
+        <v>2.931</v>
+      </c>
+      <c r="F4">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4">
+        <v>0.59548000000000001</v>
+      </c>
+      <c r="N4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O4">
+        <v>1.0306999999999999</v>
+      </c>
+      <c r="T4" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4">
+        <v>0.54449000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="B5">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2.6919651029999998</v>
+      </c>
+      <c r="D5">
+        <v>2.227886705</v>
+      </c>
+      <c r="E5">
+        <v>3.1469999999999998</v>
+      </c>
+      <c r="F5">
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5">
+        <v>6.7680999999999996</v>
+      </c>
+      <c r="N5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5">
+        <v>7.2034000000000002</v>
+      </c>
+      <c r="T5" t="s">
+        <v>205</v>
+      </c>
+      <c r="U5">
+        <v>6.7172000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C6" s="31">
+        <v>3.0511525220000002</v>
+      </c>
+      <c r="D6" s="31">
+        <v>2.3443922740000001</v>
+      </c>
+      <c r="E6">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="F6">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6">
+        <v>6.5955000000000004</v>
+      </c>
+      <c r="N6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6">
+        <v>7.0307000000000004</v>
+      </c>
+      <c r="T6" t="s">
+        <v>206</v>
+      </c>
+      <c r="U6">
+        <v>6.5445000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="B7">
+        <v>1.663</v>
+      </c>
+      <c r="C7">
+        <v>2.9309490309999999</v>
+      </c>
+      <c r="D7">
+        <v>2.2922560710000002</v>
+      </c>
+      <c r="E7">
+        <v>3.653</v>
+      </c>
+      <c r="F7">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7">
+        <v>0.98689000000000004</v>
+      </c>
+      <c r="N7" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7">
+        <v>0.98672000000000004</v>
+      </c>
+      <c r="T7" t="s">
+        <v>207</v>
+      </c>
+      <c r="U7">
+        <v>0.96352000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="31">
+        <v>3.1470576709999998</v>
+      </c>
+      <c r="D8" s="31">
+        <v>2.2833012290000001</v>
+      </c>
+      <c r="E8">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="F8">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8">
+        <v>5267.6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O8">
+        <v>5199.5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>208</v>
+      </c>
+      <c r="U8">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="B9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C9">
+        <v>2.522444234</v>
+      </c>
+      <c r="D9">
+        <v>2.204119983</v>
+      </c>
+      <c r="E9">
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="F9">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1.7493000000000001E-132</v>
+      </c>
+      <c r="N9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" s="18">
+        <v>4.2957000000000001E-132</v>
+      </c>
+      <c r="T9" t="s">
+        <v>209</v>
+      </c>
+      <c r="U9" s="18">
+        <v>2.1992E-101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="B10">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2.1643528559999998</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1.977723605</v>
+      </c>
+      <c r="E10">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="F10">
+        <v>2.2429999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2.1105897100000002</v>
+      </c>
+      <c r="D11">
+        <v>1.8976270909999999</v>
+      </c>
+      <c r="E11">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="F11">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11">
+        <v>-0.10163999999999999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>210</v>
+      </c>
+      <c r="O11">
+        <v>-1.6294699999999999E-2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>210</v>
+      </c>
+      <c r="U11">
+        <v>-0.120252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="B12">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="C12" s="31">
+        <v>3.2516382199999998</v>
+      </c>
+      <c r="D12" s="31">
+        <v>2.4712917110000001</v>
+      </c>
+      <c r="E12">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="F12">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="H12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12">
+        <v>1.26119</v>
+      </c>
+      <c r="N12" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12">
+        <v>1.09026</v>
+      </c>
+      <c r="T12" t="s">
+        <v>211</v>
+      </c>
+      <c r="U12">
+        <v>1.2878099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B13">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="C13">
+        <v>2.1789769470000002</v>
+      </c>
+      <c r="D13">
+        <v>1.986771734</v>
+      </c>
+      <c r="E13">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="F13">
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13">
+        <v>-0.14996699999999999</v>
+      </c>
+      <c r="N13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O13">
+        <v>-0.124282</v>
+      </c>
+      <c r="T13" t="s">
+        <v>212</v>
+      </c>
+      <c r="U13">
+        <v>-0.15592300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1.5314789170000001</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1.3802112419999999</v>
+      </c>
+      <c r="E14">
+        <v>3.6930000000000001</v>
+      </c>
+      <c r="F14">
+        <v>2.4649999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.74</v>
+      </c>
+      <c r="B15">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="C15">
+        <v>2.1731862679999998</v>
+      </c>
+      <c r="D15">
+        <v>2.0043213739999999</v>
+      </c>
+      <c r="E15">
+        <v>3.798</v>
+      </c>
+      <c r="F15">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="H15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N15" t="s">
+        <v>265</v>
+      </c>
+      <c r="T15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="E16">
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="F16">
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="B17">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="C17">
+        <v>2.0128372250000002</v>
+      </c>
+      <c r="D17">
+        <v>1.9190780919999999</v>
+      </c>
+      <c r="E17">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="F17">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>279</v>
+      </c>
+      <c r="N17" t="s">
+        <v>283</v>
+      </c>
+      <c r="T17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="31">
+        <v>3.6532125139999998</v>
+      </c>
+      <c r="D18" s="31">
+        <v>2.354108439</v>
+      </c>
+      <c r="E18">
+        <v>3.456</v>
+      </c>
+      <c r="F18">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2.696356389</v>
+      </c>
+      <c r="D19">
+        <v>2.225309282</v>
+      </c>
+      <c r="E19">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="F19">
+        <v>2.3279999999999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19">
+        <v>0.62448000000000004</v>
+      </c>
+      <c r="J19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19">
+        <v>1.6417000000000001E-2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>221</v>
+      </c>
+      <c r="O19">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="P19" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19">
+        <v>1.2753E-2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>221</v>
+      </c>
+      <c r="U19">
+        <v>0.41958000000000001</v>
+      </c>
+      <c r="V19" t="s">
+        <v>222</v>
+      </c>
+      <c r="W19">
+        <v>1.5868E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="B20">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="C20" s="31">
+        <v>2.096910013</v>
+      </c>
+      <c r="D20" s="31">
+        <v>1.8750612630000001</v>
+      </c>
+      <c r="E20">
+        <v>1.663</v>
+      </c>
+      <c r="F20">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="I20" t="s">
+        <v>223</v>
+      </c>
+      <c r="J20">
+        <v>38.04</v>
+      </c>
+      <c r="K20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="18">
+        <v>5.0837000000000003E-76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20">
+        <v>56.738999999999997</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>224</v>
+      </c>
+      <c r="R20" s="18">
+        <v>5.5755999999999999E-99</v>
+      </c>
+      <c r="U20" t="s">
+        <v>223</v>
+      </c>
+      <c r="V20">
+        <v>26.442</v>
+      </c>
+      <c r="W20" t="s">
+        <v>224</v>
+      </c>
+      <c r="X20" s="18">
+        <v>1.654E-56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="B21">
+        <v>1.38</v>
+      </c>
+      <c r="C21">
+        <v>3.2922560710000002</v>
+      </c>
+      <c r="D21">
+        <v>2.4183012910000001</v>
+      </c>
+      <c r="E21">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="F21">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21">
+        <v>0.45505000000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>226</v>
+      </c>
+      <c r="K21">
+        <v>4.1114999999999999E-2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>225</v>
+      </c>
+      <c r="O21">
+        <v>0.11337999999999999</v>
+      </c>
+      <c r="P21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q21">
+        <v>1.8939999999999999E-2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>225</v>
+      </c>
+      <c r="U21">
+        <v>1.0066999999999999</v>
+      </c>
+      <c r="V21" t="s">
+        <v>226</v>
+      </c>
+      <c r="W21">
+        <v>4.8267999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="B22">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C22" s="31">
+        <v>2.8721562729999999</v>
+      </c>
+      <c r="D22" s="31">
+        <v>2.322219295</v>
+      </c>
+      <c r="E22">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="F22">
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="B23">
+        <v>1.663</v>
+      </c>
+      <c r="C23">
+        <v>2.093421685</v>
+      </c>
+      <c r="D23">
+        <v>1.8450980400000001</v>
+      </c>
+      <c r="E23">
+        <v>3.46</v>
+      </c>
+      <c r="F23">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="H23" t="s">
+        <v>227</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="T23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1.544</v>
+      </c>
+      <c r="B24">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="C24" s="31">
+        <v>2.522444234</v>
+      </c>
+      <c r="D24" s="31">
+        <v>2.2430380489999999</v>
+      </c>
+      <c r="E24">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="F24">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" t="s">
+        <v>280</v>
+      </c>
+      <c r="N24" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s">
+        <v>284</v>
+      </c>
+      <c r="T24" t="s">
+        <v>221</v>
+      </c>
+      <c r="U24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.9656719709999999</v>
+      </c>
+      <c r="D25">
+        <v>2.3579348470000001</v>
+      </c>
+      <c r="E25">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F25">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="H25" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" t="s">
+        <v>281</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>285</v>
+      </c>
+      <c r="T25" t="s">
+        <v>225</v>
+      </c>
+      <c r="U25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.869</v>
+      </c>
+      <c r="B26">
+        <v>1.74</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0.77815124999999996</v>
+      </c>
+      <c r="E26">
+        <v>3.052</v>
+      </c>
+      <c r="F26">
+        <v>2.2829999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B27">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C27">
+        <v>2.8773713459999999</v>
+      </c>
+      <c r="D27">
+        <v>2.2552725050000002</v>
+      </c>
+      <c r="E27">
+        <v>1.833</v>
+      </c>
+      <c r="F27">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="H27" t="s">
+        <v>228</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="T27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="31">
+        <v>0</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2.3479999999999999</v>
+      </c>
+      <c r="F28">
+        <v>2.161</v>
+      </c>
+      <c r="H28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28">
+        <v>0.95457000000000003</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28">
+        <v>0.97879000000000005</v>
+      </c>
+      <c r="T28" t="s">
+        <v>229</v>
+      </c>
+      <c r="U28">
+        <v>0.91224000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="B29">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C29">
+        <v>2.979092901</v>
+      </c>
+      <c r="D29">
+        <v>2.4166405069999999</v>
+      </c>
+      <c r="E29">
+        <v>3.59</v>
+      </c>
+      <c r="F29">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29">
+        <v>0.91120999999999996</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29">
+        <v>0.95804</v>
+      </c>
+      <c r="T29" t="s">
+        <v>230</v>
+      </c>
+      <c r="U29">
+        <v>0.83216999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1.23</v>
+      </c>
+      <c r="B30">
+        <v>1.204</v>
+      </c>
+      <c r="C30" s="31">
+        <v>2.481442629</v>
+      </c>
+      <c r="D30" s="31">
+        <v>2.1367205669999998</v>
+      </c>
+      <c r="E30">
+        <v>3.419</v>
+      </c>
+      <c r="F30">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="H30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30">
+        <v>38.04</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30">
+        <v>56.738999999999997</v>
+      </c>
+      <c r="T30" t="s">
+        <v>223</v>
+      </c>
+      <c r="U30">
+        <v>26.442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2.5369999999999999</v>
+      </c>
+      <c r="B31">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="C31">
+        <v>3.4328090050000002</v>
+      </c>
+      <c r="D31">
+        <v>2.3820170429999998</v>
+      </c>
+      <c r="E31">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="F31">
+        <v>2.476</v>
+      </c>
+      <c r="H31" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="18">
+        <v>5.0837000000000003E-76</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" s="18">
+        <v>5.5755999999999999E-99</v>
+      </c>
+      <c r="T31" t="s">
+        <v>231</v>
+      </c>
+      <c r="U31" s="18">
+        <v>1.654E-56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="B32">
+        <v>2.093</v>
+      </c>
+      <c r="C32" s="31">
+        <v>3.0429690730000001</v>
+      </c>
+      <c r="D32" s="31">
+        <v>2.2718416069999998</v>
+      </c>
+      <c r="E32">
+        <v>2.387</v>
+      </c>
+      <c r="F32">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="H32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32">
+        <v>1E-4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>232</v>
+      </c>
+      <c r="O32">
+        <v>1E-4</v>
+      </c>
+      <c r="T32" t="s">
+        <v>232</v>
+      </c>
+      <c r="U32">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="B33">
+        <v>1.869</v>
+      </c>
+      <c r="C33">
+        <v>0.95424250899999996</v>
+      </c>
+      <c r="D33">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="E33">
+        <v>1.869</v>
+      </c>
+      <c r="F33">
+        <v>1.748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2.95</v>
+      </c>
+      <c r="B34">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="C34" s="31">
+        <v>2.2121876039999999</v>
+      </c>
+      <c r="D34" s="31">
+        <v>1.908485019</v>
+      </c>
+      <c r="E34">
+        <v>2.9980000000000002</v>
+      </c>
+      <c r="F34">
+        <v>2.367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2.3443922740000001</v>
+      </c>
+      <c r="D35">
+        <v>1.954242509</v>
+      </c>
+      <c r="E35">
+        <v>1.919</v>
+      </c>
+      <c r="F35">
+        <v>1.7629999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B36">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C36" s="31">
+        <v>3.6933751510000001</v>
+      </c>
+      <c r="D36" s="31">
+        <v>2.4653828510000002</v>
+      </c>
+      <c r="E36">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="F36">
+        <v>2.149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>3.798374377</v>
+      </c>
+      <c r="D37">
+        <v>2.5263392769999999</v>
+      </c>
+      <c r="E37">
+        <v>4.16</v>
+      </c>
+      <c r="F37">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B38">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C38" s="31">
+        <v>1.5440680440000001</v>
+      </c>
+      <c r="D38" s="31">
+        <v>1.5051499779999999</v>
+      </c>
+      <c r="E38">
+        <v>4.2060000000000004</v>
+      </c>
+      <c r="F38">
+        <v>2.4870000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B39">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C39">
+        <v>2.181843588</v>
+      </c>
+      <c r="D39">
+        <v>1.9493900070000001</v>
+      </c>
+      <c r="E39">
+        <v>3.57</v>
+      </c>
+      <c r="F39">
+        <v>2.5089999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="B40">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="C40" s="31">
+        <v>2.557507202</v>
+      </c>
+      <c r="D40" s="31">
+        <v>2.2405492480000002</v>
+      </c>
+      <c r="E40">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="F40">
+        <v>2.3359999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B41">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C41">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="D41">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="E41">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="F41">
+        <v>2.6419999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1.82</v>
+      </c>
+      <c r="B42">
+        <v>1.663</v>
+      </c>
+      <c r="C42" s="31">
+        <v>1</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="F42">
+        <v>2.2789999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B43">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C43">
+        <v>2.5550944489999998</v>
+      </c>
+      <c r="D43">
+        <v>2.1367205669999998</v>
+      </c>
+      <c r="E43">
+        <v>2.258</v>
+      </c>
+      <c r="F43">
+        <v>1.9730000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="B44">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="C44" s="31">
+        <v>2.5118833610000002</v>
+      </c>
+      <c r="D44" s="31">
+        <v>2.1003705450000001</v>
+      </c>
+      <c r="E44">
+        <v>2.3380000000000001</v>
+      </c>
+      <c r="F44">
+        <v>2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="B45">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="C45">
+        <v>1.204119983</v>
+      </c>
+      <c r="D45">
+        <v>1.1760912590000001</v>
+      </c>
+      <c r="E45">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="F45">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="31">
+        <v>2.745074792</v>
+      </c>
+      <c r="D46" s="31">
+        <v>2.1461280359999999</v>
+      </c>
+      <c r="E46">
+        <v>2.569</v>
+      </c>
+      <c r="F46">
+        <v>2.0529999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B47">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C47">
+        <v>3.4563660330000001</v>
+      </c>
+      <c r="D47">
+        <v>2.4800069429999998</v>
+      </c>
+      <c r="E47">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="F47">
+        <v>2.508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="B48">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="C48" s="31">
+        <v>2.5440680439999999</v>
+      </c>
+      <c r="D48" s="31">
+        <v>2.1172712960000002</v>
+      </c>
+      <c r="E48">
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="F48">
+        <v>2.371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="B49">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C49">
+        <v>1.230448921</v>
+      </c>
+      <c r="D49">
+        <v>1.230448921</v>
+      </c>
+      <c r="E49">
+        <v>3.1909999999999998</v>
+      </c>
+      <c r="F49">
+        <v>2.5129999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="31">
+        <v>1.204119983</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1.204119983</v>
+      </c>
+      <c r="E50">
+        <v>2.802</v>
+      </c>
+      <c r="F50">
+        <v>2.2829999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B51">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C51">
+        <v>3.035029282</v>
+      </c>
+      <c r="D51">
+        <v>2.3283796030000001</v>
+      </c>
+      <c r="E51">
+        <v>3.9470000000000001</v>
+      </c>
+      <c r="F51">
+        <v>2.5550000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B52">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C52" s="31">
+        <v>2.2148438480000001</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1.806179974</v>
+      </c>
+      <c r="E52">
+        <v>3.121</v>
+      </c>
+      <c r="F52">
+        <v>2.4279999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="B53">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="C53">
+        <v>1.1760912590000001</v>
+      </c>
+      <c r="D53">
+        <v>1.0791812460000001</v>
+      </c>
+      <c r="E53">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="F53">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="B54">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="C54" s="31">
+        <v>1.4771212549999999</v>
+      </c>
+      <c r="D54" s="31">
+        <v>1.342422681</v>
+      </c>
+      <c r="E54">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="F54">
+        <v>1.1140000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B55">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C55">
+        <v>3.0318122710000002</v>
+      </c>
+      <c r="D55">
+        <v>2.4377505629999998</v>
+      </c>
+      <c r="E55">
+        <v>3.4809999999999999</v>
+      </c>
+      <c r="F55">
+        <v>2.5310000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="B56">
+        <v>2.161</v>
+      </c>
+      <c r="C56" s="31">
+        <v>2.025305865</v>
+      </c>
+      <c r="D56" s="31">
+        <v>1.812913357</v>
+      </c>
+      <c r="E56">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="F56">
+        <v>2.3439999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B57">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C57">
+        <v>1.86332286</v>
+      </c>
+      <c r="D57">
+        <v>1.6334684559999999</v>
+      </c>
+      <c r="E57">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="F57">
+        <v>2.2789999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="B58">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C58" s="31">
+        <v>3.3113299519999999</v>
+      </c>
+      <c r="D58" s="31">
+        <v>2.3747483460000001</v>
+      </c>
+      <c r="E58">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="F58">
+        <v>2.0680000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1.69</v>
+      </c>
+      <c r="B59">
+        <v>1.556</v>
+      </c>
+      <c r="C59">
+        <v>2.7226339230000001</v>
+      </c>
+      <c r="D59">
+        <v>2.1335389079999998</v>
+      </c>
+      <c r="E59">
+        <v>2.371</v>
+      </c>
+      <c r="F59">
+        <v>2.1339999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="31">
+        <v>1.662757832</v>
+      </c>
+      <c r="D60" s="31">
+        <v>1.5682017239999999</v>
+      </c>
+      <c r="E60">
+        <v>3.355</v>
+      </c>
+      <c r="F60">
+        <v>2.3559999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3.5230000000000001</v>
+      </c>
+      <c r="B61">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C61">
+        <v>2.4345689039999998</v>
+      </c>
+      <c r="D61">
+        <v>2.0374264979999999</v>
+      </c>
+      <c r="E61">
+        <v>3.706</v>
+      </c>
+      <c r="F61">
+        <v>2.524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="31">
+        <v>3.416141031</v>
+      </c>
+      <c r="D62" s="31">
+        <v>2.4563660330000001</v>
+      </c>
+      <c r="E62">
+        <v>2.484</v>
+      </c>
+      <c r="F62">
+        <v>1.9490000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="B63">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C63">
+        <v>2.439332694</v>
+      </c>
+      <c r="D63">
+        <v>2.1846914310000001</v>
+      </c>
+      <c r="E63">
+        <v>2.19</v>
+      </c>
+      <c r="F63">
+        <v>1.869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" s="31">
+        <v>3.0318122710000002</v>
+      </c>
+      <c r="D64" s="31">
+        <v>2.2430380489999999</v>
+      </c>
+      <c r="E64">
+        <v>3.6320000000000001</v>
+      </c>
+      <c r="F64">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="D65">
+        <v>0.77815124999999996</v>
+      </c>
+      <c r="E65">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="F65">
+        <v>2.1549999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="B66">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="C66" s="31">
+        <v>3.3977662560000002</v>
+      </c>
+      <c r="D66" s="31">
+        <v>2.3944516810000001</v>
+      </c>
+      <c r="E66">
+        <v>3.141</v>
+      </c>
+      <c r="F66">
+        <v>2.4180000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2.274</v>
+      </c>
+      <c r="B67">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="C67">
+        <v>3.4596939760000001</v>
+      </c>
+      <c r="D67">
+        <v>2.4361626470000002</v>
+      </c>
+      <c r="E67">
+        <v>3.5840000000000001</v>
+      </c>
+      <c r="F67">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="B68">
+        <v>1.38</v>
+      </c>
+      <c r="C68" s="31">
+        <v>2.9903388550000001</v>
+      </c>
+      <c r="D68" s="31">
+        <v>2.378397901</v>
+      </c>
+      <c r="E68">
+        <v>3.97</v>
+      </c>
+      <c r="F68">
+        <v>2.528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B69">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="C69">
+        <v>0.47712125500000002</v>
+      </c>
+      <c r="D69">
+        <v>0.47712125500000002</v>
+      </c>
+      <c r="E69">
+        <v>3.484</v>
+      </c>
+      <c r="F69">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="B70">
+        <v>1.716</v>
+      </c>
+      <c r="C70" s="31">
+        <v>1.9444826719999999</v>
+      </c>
+      <c r="D70" s="31">
+        <v>1.806179974</v>
+      </c>
+      <c r="E70">
+        <v>3.121</v>
+      </c>
+      <c r="F70">
+        <v>2.3580000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B71">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C71">
+        <v>3.7172543130000002</v>
+      </c>
+      <c r="D71">
+        <v>2.5065050320000002</v>
+      </c>
+      <c r="E71">
+        <v>3.8740000000000001</v>
+      </c>
+      <c r="F71">
+        <v>2.589</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" s="31">
+        <v>1.322219295</v>
+      </c>
+      <c r="D72" s="31">
+        <v>1.278753601</v>
+      </c>
+      <c r="E72">
+        <v>3.5960000000000001</v>
+      </c>
+      <c r="F72">
+        <v>2.5209999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1.613</v>
+      </c>
+      <c r="B73">
+        <v>1.431</v>
+      </c>
+      <c r="C73">
+        <v>2.2966651900000001</v>
+      </c>
+      <c r="D73">
+        <v>2.06069784</v>
+      </c>
+      <c r="E73">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="F73">
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2.173</v>
+      </c>
+      <c r="B74">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="C74" s="31">
+        <v>2.6655809910000001</v>
+      </c>
+      <c r="D74" s="31">
+        <v>2.204119983</v>
+      </c>
+      <c r="E74">
+        <v>2.879</v>
+      </c>
+      <c r="F74">
+        <v>2.3650000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="B75">
+        <v>1.968</v>
+      </c>
+      <c r="C75">
+        <v>3.0519239159999998</v>
+      </c>
+      <c r="D75">
+        <v>2.2833012290000001</v>
+      </c>
+      <c r="E75">
+        <v>3.14</v>
+      </c>
+      <c r="F75">
+        <v>2.3580000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="B76">
+        <v>2.21</v>
+      </c>
+      <c r="C76" s="31">
+        <v>2.608526034</v>
+      </c>
+      <c r="D76" s="31">
+        <v>2.1702617150000001</v>
+      </c>
+      <c r="E76">
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="F76">
+        <v>2.4870000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>3.0224283710000002</v>
+      </c>
+      <c r="D77">
+        <v>2.4409090820000001</v>
+      </c>
+      <c r="E77">
+        <v>2.835</v>
+      </c>
+      <c r="F77">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B78">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C78" s="31">
+        <v>2.8948696570000001</v>
+      </c>
+      <c r="D78" s="31">
+        <v>2.2504200019999998</v>
+      </c>
+      <c r="E78">
+        <v>2.59</v>
+      </c>
+      <c r="F78">
+        <v>2.2250000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="B79">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="C79">
+        <v>2.1430148</v>
+      </c>
+      <c r="D79">
+        <v>1.954242509</v>
+      </c>
+      <c r="E79">
+        <v>3.78</v>
+      </c>
+      <c r="F79">
+        <v>2.4580000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B80">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C80" s="31">
+        <v>1.8325089130000001</v>
+      </c>
+      <c r="D80" s="31">
+        <v>1.7634279939999999</v>
+      </c>
+      <c r="E80">
+        <v>3.4929999999999999</v>
+      </c>
+      <c r="F80">
+        <v>2.431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B81">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C81">
+        <v>1.716003344</v>
+      </c>
+      <c r="D81">
+        <v>1.5440680440000001</v>
+      </c>
+      <c r="E81">
+        <v>2.992</v>
+      </c>
+      <c r="F81">
+        <v>2.3260000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="B82">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="C82" s="31">
+        <v>2.3483048630000001</v>
+      </c>
+      <c r="D82" s="31">
+        <v>2.1613680020000001</v>
+      </c>
+      <c r="E82">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="F82">
+        <v>2.3380000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1.58</v>
+      </c>
+      <c r="B83">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="C83">
+        <v>2.3502480179999998</v>
+      </c>
+      <c r="D83">
+        <v>1.959041392</v>
+      </c>
+      <c r="E83">
+        <v>3.6520000000000001</v>
+      </c>
+      <c r="F83">
+        <v>2.4710000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1.633</v>
+      </c>
+      <c r="B84">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="C84" s="31">
+        <v>1.9190780919999999</v>
+      </c>
+      <c r="D84" s="31">
+        <v>1.8195439360000001</v>
+      </c>
+      <c r="E84">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="F84">
+        <v>1.792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>3.5899496009999998</v>
+      </c>
+      <c r="D85">
+        <v>2.5092025219999998</v>
+      </c>
+      <c r="E85">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="F85">
+        <v>2.524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B86">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C86" s="31">
+        <v>3.4187982909999999</v>
+      </c>
+      <c r="D86" s="31">
+        <v>2.4377505629999998</v>
+      </c>
+      <c r="E86">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="F86">
+        <v>2.2879999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B87">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="F87">
+        <v>2.415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" s="31">
+        <v>2.7817553749999999</v>
+      </c>
+      <c r="D88" s="31">
+        <v>2.2764618040000002</v>
+      </c>
+      <c r="E88">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="F88">
+        <v>2.246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B89">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C89">
+        <v>3.5718252490000002</v>
+      </c>
+      <c r="D89">
+        <v>2.4756711880000002</v>
+      </c>
+      <c r="E89">
+        <v>2.738</v>
+      </c>
+      <c r="F89">
+        <v>2.3050000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B90">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C90" s="31">
+        <v>2.3873898260000002</v>
+      </c>
+      <c r="D90" s="31">
+        <v>2.2068258759999999</v>
+      </c>
+      <c r="E90">
+        <v>1.732</v>
+      </c>
+      <c r="F90">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="B91">
+        <v>1.204</v>
+      </c>
+      <c r="C91">
+        <v>1.8692317199999999</v>
+      </c>
+      <c r="D91">
+        <v>1.7481880270000001</v>
+      </c>
+      <c r="E91">
+        <v>3.569</v>
+      </c>
+      <c r="F91">
+        <v>2.452</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" s="31">
+        <v>2.6138418219999999</v>
+      </c>
+      <c r="D92" s="31">
+        <v>2.2405492480000002</v>
+      </c>
+      <c r="E92">
+        <v>3.1</v>
+      </c>
+      <c r="F92">
+        <v>2.5070000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1.653212514</v>
+      </c>
+      <c r="D93">
+        <v>1.5051499779999999</v>
+      </c>
+      <c r="E93">
+        <v>3.5379999999999998</v>
+      </c>
+      <c r="F93">
+        <v>2.4860000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B94">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C94" s="31">
+        <v>2.998259338</v>
+      </c>
+      <c r="D94" s="31">
+        <v>2.3673559210000001</v>
+      </c>
+      <c r="E94">
+        <v>2.56</v>
+      </c>
+      <c r="F94">
+        <v>2.1669999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B95">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C95">
+        <v>3.0136796970000002</v>
+      </c>
+      <c r="D95">
+        <v>2.4116197060000002</v>
+      </c>
+      <c r="E95">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="F95">
+        <v>2.1989999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" s="31">
+        <v>3.0394141189999999</v>
+      </c>
+      <c r="D96" s="31">
+        <v>2.222716471</v>
+      </c>
+      <c r="E96">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="F96">
+        <v>2.3769999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B97">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C97">
+        <v>3.372175286</v>
+      </c>
+      <c r="D97">
+        <v>2.4842998390000002</v>
+      </c>
+      <c r="E97">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="F97">
+        <v>2.593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="B98">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C98" s="31">
+        <v>1.9190780919999999</v>
+      </c>
+      <c r="D98" s="31">
+        <v>1.7634279939999999</v>
+      </c>
+      <c r="E98">
+        <v>2.98</v>
+      </c>
+      <c r="F98">
+        <v>2.3439999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2.944</v>
+      </c>
+      <c r="B99">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="C99">
+        <v>2.698100546</v>
+      </c>
+      <c r="D99">
+        <v>2.1760912590000001</v>
+      </c>
+      <c r="E99">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="F99">
+        <v>2.274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" s="31">
+        <v>1</v>
+      </c>
+      <c r="D100" s="31">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="F100">
+        <v>2.4359999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B101">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C101">
+        <v>1.8195439360000001</v>
+      </c>
+      <c r="D101">
+        <v>1.653212514</v>
+      </c>
+      <c r="E101">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="F101">
+        <v>2.456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B102">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C102" s="31">
+        <v>2.4608978430000001</v>
+      </c>
+      <c r="D102" s="31">
+        <v>2.149219113</v>
+      </c>
+      <c r="E102">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="F102">
+        <v>1.903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="B103">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C103">
+        <v>2.021189299</v>
+      </c>
+      <c r="D103">
+        <v>1.8750612630000001</v>
+      </c>
+      <c r="E103">
+        <v>2.915</v>
+      </c>
+      <c r="F103">
+        <v>2.286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1.748</v>
+      </c>
+      <c r="B104">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="C104" s="31">
+        <v>2.9263424470000001</v>
+      </c>
+      <c r="D104" s="31">
+        <v>2.3117538610000001</v>
+      </c>
+      <c r="E104">
+        <v>1.839</v>
+      </c>
+      <c r="F104">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>2.1430148</v>
+      </c>
+      <c r="D105">
+        <v>1.903089987</v>
+      </c>
+      <c r="E105">
+        <v>2.33</v>
+      </c>
+      <c r="F105">
+        <v>2.0489999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2.823</v>
+      </c>
+      <c r="B106">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="C106" s="31">
+        <v>4.1599279530000004</v>
+      </c>
+      <c r="D106" s="31">
+        <v>2.5198279939999999</v>
+      </c>
+      <c r="E106">
+        <v>2.5</v>
+      </c>
+      <c r="F106">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1.613</v>
+      </c>
+      <c r="B107">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="C107">
+        <v>2.7307822759999998</v>
+      </c>
+      <c r="D107">
+        <v>2.1139433520000002</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" s="31">
+        <v>4.2060969449999996</v>
+      </c>
+      <c r="D108" s="31">
+        <v>2.4871383749999998</v>
+      </c>
+      <c r="E108">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="F108">
+        <v>2.1269999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="B109">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C109">
+        <v>0.95424250899999996</v>
+      </c>
+      <c r="D109">
+        <v>0.95424250899999996</v>
+      </c>
+      <c r="E109">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="F109">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B110">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C110" s="31">
+        <v>3.5696079680000001</v>
+      </c>
+      <c r="D110" s="31">
+        <v>2.5092025219999998</v>
+      </c>
+      <c r="E110">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="F110">
+        <v>1.954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2.9510000000000001</v>
+      </c>
+      <c r="B111">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="C111">
+        <v>1.9493900070000001</v>
+      </c>
+      <c r="D111">
+        <v>1.7993405490000001</v>
+      </c>
+      <c r="E111">
+        <v>3.423</v>
+      </c>
+      <c r="F111">
+        <v>2.3460000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" s="31">
+        <v>2.068185862</v>
+      </c>
+      <c r="D112" s="31">
+        <v>1.8512583490000001</v>
+      </c>
+      <c r="E112">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="F112">
+        <v>2.3580000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1.462</v>
+      </c>
+      <c r="B113">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="C113">
+        <v>2.4048337169999998</v>
+      </c>
+      <c r="D113">
+        <v>2.120573931</v>
+      </c>
+      <c r="E113">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="F113">
+        <v>1.806</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" s="31">
+        <v>0.95424250899999996</v>
+      </c>
+      <c r="D114" s="31">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="E114">
+        <v>2.121</v>
+      </c>
+      <c r="F114">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3.444</v>
+      </c>
+      <c r="B115">
+        <v>2.274</v>
+      </c>
+      <c r="C115">
+        <v>2.9278834100000002</v>
+      </c>
+      <c r="D115">
+        <v>2.336459734</v>
+      </c>
+      <c r="E115">
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="F115">
+        <v>2.641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="B116">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="C116" s="31">
+        <v>2.1613680020000001</v>
+      </c>
+      <c r="D116" s="31">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="F116">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1.982</v>
+      </c>
+      <c r="B117">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="C117">
+        <v>3.1956229440000001</v>
+      </c>
+      <c r="D117">
+        <v>2.3654879850000001</v>
+      </c>
+      <c r="E117">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="F117">
+        <v>2.4609999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" s="31">
+        <v>3.9580858490000002</v>
+      </c>
+      <c r="D118" s="31">
+        <v>2.6424645199999999</v>
+      </c>
+      <c r="E118">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="F118">
+        <v>2.585</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B119">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C119">
+        <v>2.3926969530000002</v>
+      </c>
+      <c r="D119">
+        <v>2.1430148</v>
+      </c>
+      <c r="E119">
+        <v>2.625</v>
+      </c>
+      <c r="F119">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="B120">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C120" s="31">
+        <v>2.4955443380000002</v>
+      </c>
+      <c r="D120" s="31">
+        <v>2.10720997</v>
+      </c>
+      <c r="E120">
+        <v>4.1539999999999999</v>
+      </c>
+      <c r="F120">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="B121">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C121">
+        <v>2.5682017240000001</v>
+      </c>
+      <c r="D121">
+        <v>2.1038037209999998</v>
+      </c>
+      <c r="E121">
+        <v>4.085</v>
+      </c>
+      <c r="F121">
+        <v>2.5470000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="B122">
+        <v>1.23</v>
+      </c>
+      <c r="C122" s="31">
+        <v>2.3384564939999999</v>
+      </c>
+      <c r="D122" s="31">
+        <v>2.1430148</v>
+      </c>
+      <c r="E122">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="F122">
+        <v>2.367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>2.6919651029999998</v>
+      </c>
+      <c r="D123">
+        <v>2.278753601</v>
+      </c>
+      <c r="E123">
+        <v>2.149</v>
+      </c>
+      <c r="F123">
+        <v>2.0409999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2.4769999999999999</v>
+      </c>
+      <c r="B124">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="C124" s="31">
+        <v>2.4712917110000001</v>
+      </c>
+      <c r="D124" s="31">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="F124">
+        <v>2.2759999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1.431</v>
+      </c>
+      <c r="B125">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="C125">
+        <v>1.8450980400000001</v>
+      </c>
+      <c r="D125">
+        <v>1.662757832</v>
+      </c>
+      <c r="E125">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="F125">
+        <v>2.3479999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>3.754</v>
+      </c>
+      <c r="B126">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="C126" s="31">
+        <v>1.9190780919999999</v>
+      </c>
+      <c r="D126" s="31">
+        <v>1.7781512500000001</v>
+      </c>
+      <c r="E126">
+        <v>2.589</v>
+      </c>
+      <c r="F126">
+        <v>2.1880000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1.833</v>
+      </c>
+      <c r="B127">
+        <v>1.663</v>
+      </c>
+      <c r="C127">
+        <v>2.2355284470000001</v>
+      </c>
+      <c r="D127">
+        <v>1.9822712330000001</v>
+      </c>
+      <c r="E127">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="F127">
+        <v>1.633</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2.66</v>
+      </c>
+      <c r="B128">
+        <v>1.82</v>
+      </c>
+      <c r="C128" s="31">
+        <v>2.2576785749999999</v>
+      </c>
+      <c r="D128" s="31">
+        <v>1.9731278539999999</v>
+      </c>
+      <c r="E128">
+        <v>2.94</v>
+      </c>
+      <c r="F128">
+        <v>2.2970000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B129">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C129">
+        <v>2.3384564939999999</v>
+      </c>
+      <c r="D129">
+        <v>2.021189299</v>
+      </c>
+      <c r="E129">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="F129">
+        <v>2.0289999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="B130">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C130" s="31">
+        <v>1.414973348</v>
+      </c>
+      <c r="D130" s="31">
+        <v>1.230448921</v>
+      </c>
+      <c r="E130">
+        <v>1.792</v>
+      </c>
+      <c r="F130">
+        <v>1.643</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2.863</v>
+      </c>
+      <c r="B131">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>4.4130000000000003</v>
+      </c>
+      <c r="F131">
+        <v>2.6389999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="B132">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C132" s="31">
+        <v>2.423245874</v>
+      </c>
+      <c r="D132" s="31">
+        <v>2.0569048510000001</v>
+      </c>
+      <c r="E132">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="F132">
+        <v>2.0859999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="B133">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="C133">
+        <v>2.2624510899999999</v>
+      </c>
+      <c r="D133">
+        <v>2.0569048510000001</v>
+      </c>
+      <c r="E133">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="F133">
+        <v>2.5369999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1.643</v>
+      </c>
+      <c r="B134">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="C134" s="31">
+        <v>2.860936621</v>
+      </c>
+      <c r="D134" s="31">
+        <v>2.2695129440000001</v>
+      </c>
+      <c r="E134">
+        <v>2.3279999999999998</v>
+      </c>
+      <c r="F134">
+        <v>2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B135">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C135">
+        <v>2.9410142440000002</v>
+      </c>
+      <c r="D135">
+        <v>2.419955748</v>
+      </c>
+      <c r="E135">
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="F135">
+        <v>2.5939999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="B136">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C136" s="31">
+        <v>2.1643528559999998</v>
+      </c>
+      <c r="D136" s="31">
+        <v>1.9344984510000001</v>
+      </c>
+      <c r="E136">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="F136">
+        <v>1.9910000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1.778</v>
+      </c>
+      <c r="B137">
+        <v>1.591</v>
+      </c>
+      <c r="C137">
+        <v>1.0791812460000001</v>
+      </c>
+      <c r="D137">
+        <v>1.0413926849999999</v>
+      </c>
+      <c r="E137">
+        <v>3.875</v>
+      </c>
+      <c r="F137">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B138">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C138" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="D138" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="E138">
+        <v>2.5870000000000002</v>
+      </c>
+      <c r="F138">
+        <v>2.1459999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>3.13</v>
+      </c>
+      <c r="B139">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="C139">
+        <v>2.7551122659999998</v>
+      </c>
+      <c r="D139">
+        <v>2.3096301669999999</v>
+      </c>
+      <c r="E139">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="F139">
+        <v>1.9910000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" s="31">
+        <v>2.5693739099999999</v>
+      </c>
+      <c r="D140" s="31">
+        <v>2.053078443</v>
+      </c>
+      <c r="E140">
+        <v>3.169</v>
+      </c>
+      <c r="F140">
+        <v>2.2829999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1.851</v>
+      </c>
+      <c r="B141">
+        <v>1.544</v>
+      </c>
+      <c r="C141">
+        <v>1.8976270909999999</v>
+      </c>
+      <c r="D141">
+        <v>1.770852012</v>
+      </c>
+      <c r="E141">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="F141">
+        <v>2.4809999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="B142">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C142" s="31">
+        <v>3.514547753</v>
+      </c>
+      <c r="D142" s="31">
+        <v>2.5078558719999999</v>
+      </c>
+      <c r="E142">
+        <v>3.81</v>
+      </c>
+      <c r="F142">
+        <v>2.4980000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>2.6394864889999998</v>
+      </c>
+      <c r="D143">
+        <v>2.2528530309999999</v>
+      </c>
+      <c r="E143">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="F143">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="B144">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C144" s="31">
+        <v>2.444044796</v>
+      </c>
+      <c r="D144" s="31">
+        <v>2.1367205669999998</v>
+      </c>
+      <c r="E144">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="F144">
+        <v>2.3180000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>1.255272505</v>
+      </c>
+      <c r="D145">
+        <v>1.230448921</v>
+      </c>
+      <c r="E145">
+        <v>3.395</v>
+      </c>
+      <c r="F145">
+        <v>2.3620000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C146" s="31">
+        <v>2.3560258570000001</v>
+      </c>
+      <c r="D146" s="31">
+        <v>2.021189299</v>
+      </c>
+      <c r="E146">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="F146">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>3.3277674899999998</v>
+      </c>
+      <c r="D147">
+        <v>2.3710678619999999</v>
+      </c>
+      <c r="E147">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="F147">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C148" s="31">
+        <v>3.190891717</v>
+      </c>
+      <c r="D148" s="31">
+        <v>2.5132175999999999</v>
+      </c>
+      <c r="E148">
+        <v>3.0979999999999999</v>
+      </c>
+      <c r="F148">
+        <v>2.4489999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>2.3729120030000002</v>
+      </c>
+      <c r="D149">
+        <v>2.068185862</v>
+      </c>
+      <c r="E149">
+        <v>3.65</v>
+      </c>
+      <c r="F149">
+        <v>2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C150" s="31">
+        <v>2.3304137730000001</v>
+      </c>
+      <c r="D150" s="31">
+        <v>2.0755469610000001</v>
+      </c>
+      <c r="E150">
+        <v>4.6219999999999999</v>
+      </c>
+      <c r="F150">
+        <v>2.6669999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="D151">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="E151">
+        <v>3.4460000000000002</v>
+      </c>
+      <c r="F151">
+        <v>2.4350000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C152" s="31">
+        <v>2.8020892580000001</v>
+      </c>
+      <c r="D152" s="31">
+        <v>2.2833012290000001</v>
+      </c>
+      <c r="E152">
+        <v>3.75</v>
+      </c>
+      <c r="F152">
+        <v>2.5369999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>1.204119983</v>
+      </c>
+      <c r="D153">
+        <v>1.1760912590000001</v>
+      </c>
+      <c r="E153">
+        <v>3.367</v>
+      </c>
+      <c r="F153">
+        <v>2.4740000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C154" s="31">
+        <v>3.0107238650000001</v>
+      </c>
+      <c r="D154" s="31">
+        <v>2.3159703450000002</v>
+      </c>
+      <c r="E154">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="F154">
+        <v>2.0790000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>2.98</v>
+      </c>
+      <c r="F155">
+        <v>2.286</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C156" s="31">
+        <v>3.946648734</v>
+      </c>
+      <c r="D156" s="31">
+        <v>2.5550944489999998</v>
+      </c>
+      <c r="E156">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="F156">
+        <v>2.1579999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>1.968482949</v>
+      </c>
+      <c r="D157">
+        <v>1.770852012</v>
+      </c>
+      <c r="E157">
+        <v>2.806</v>
+      </c>
+      <c r="F157">
+        <v>2.3439999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C158" s="31">
+        <v>2.2966651900000001</v>
+      </c>
+      <c r="D158" s="31">
+        <v>1.977723605</v>
+      </c>
+      <c r="E158">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="F158">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>2.342422681</v>
+      </c>
+      <c r="D159">
+        <v>2.1038037209999998</v>
+      </c>
+      <c r="E159">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="F159">
+        <v>2.3889999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C160" s="31">
+        <v>1.1139433519999999</v>
+      </c>
+      <c r="D160" s="31">
+        <v>0.95424250899999996</v>
+      </c>
+      <c r="E160">
+        <v>2.29</v>
+      </c>
+      <c r="F160">
+        <v>1.954</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>3.1212314550000002</v>
+      </c>
+      <c r="D161">
+        <v>2.428134794</v>
+      </c>
+      <c r="E161">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="F161">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162" s="31">
+        <v>2.2068258759999999</v>
+      </c>
+      <c r="D162" s="31">
+        <v>1.8920946030000001</v>
+      </c>
+      <c r="E162">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="F162">
+        <v>2.0830000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>1.278753601</v>
+      </c>
+      <c r="D163">
+        <v>1.1461280359999999</v>
+      </c>
+      <c r="E163">
+        <v>3.45</v>
+      </c>
+      <c r="F163">
+        <v>2.4359999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C164" s="31">
+        <v>1</v>
+      </c>
+      <c r="D164" s="31">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="E164">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="F164">
+        <v>2.512</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>2.7641761319999998</v>
+      </c>
+      <c r="D165">
+        <v>2.181843588</v>
+      </c>
+      <c r="E165">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F165">
+        <v>2.0409999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C166" s="31">
+        <v>2.8536982119999998</v>
+      </c>
+      <c r="D166" s="31">
+        <v>2.3096301669999999</v>
+      </c>
+      <c r="E166">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="F166">
+        <v>2.6989999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>1.602059991</v>
+      </c>
+      <c r="D167">
+        <v>1.414973348</v>
+      </c>
+      <c r="E167">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F167">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C168" s="31">
+        <v>1.8692317199999999</v>
+      </c>
+      <c r="D168" s="31">
+        <v>1.716003344</v>
+      </c>
+      <c r="E168">
+        <v>3.1389999999999998</v>
+      </c>
+      <c r="F168">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>2.988558957</v>
+      </c>
+      <c r="D169">
+        <v>2.2966651900000001</v>
+      </c>
+      <c r="E169">
+        <v>1.462</v>
+      </c>
+      <c r="F169">
+        <v>1.3620000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C170" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D170" s="31">
+        <v>0.60205999099999996</v>
+      </c>
+      <c r="E170">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="F170">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>1.5314789170000001</v>
+      </c>
+      <c r="D171">
+        <v>1.4913616940000001</v>
+      </c>
+      <c r="E171">
+        <v>1.839</v>
+      </c>
+      <c r="F171">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C172" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D172" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="E172">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="F172">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C173">
+        <v>1.6434526759999999</v>
+      </c>
+      <c r="D173">
+        <v>1.5682017239999999</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="31">
+        <v>1.255272505</v>
+      </c>
+      <c r="D174" s="31">
+        <v>1.1139433519999999</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>2.810904281</v>
+      </c>
+      <c r="D175">
+        <v>2.2504200019999998</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C176" s="31">
+        <v>1.255272505</v>
+      </c>
+      <c r="D176" s="31">
+        <v>1.1139433519999999</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>2.3560258570000001</v>
+      </c>
+      <c r="D177">
+        <v>2.0863598310000002</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C178" s="31">
+        <v>1.3802112419999999</v>
+      </c>
+      <c r="D178" s="31">
+        <v>1.255272505</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>1.7993405490000001</v>
+      </c>
+      <c r="D179">
+        <v>1.653212514</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C180" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="D180" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>1.230448921</v>
+      </c>
+      <c r="D181">
+        <v>1.1461280359999999</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C182" s="31">
+        <v>1.230448921</v>
+      </c>
+      <c r="D182" s="31">
+        <v>1.230448921</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>1.785329835</v>
+      </c>
+      <c r="D183">
+        <v>1.7403626889999999</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C184" s="31">
+        <v>3.4812992729999999</v>
+      </c>
+      <c r="D184" s="31">
+        <v>2.5314789169999998</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>3.2477278329999999</v>
+      </c>
+      <c r="D185">
+        <v>2.3463529740000002</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C186" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D186" s="31">
+        <v>0.60205999099999996</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>3.1139433520000002</v>
+      </c>
+      <c r="D187">
+        <v>2.3443922740000001</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C188" s="31">
+        <v>2.8318697739999998</v>
+      </c>
+      <c r="D188" s="31">
+        <v>2.278753601</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>1.812913357</v>
+      </c>
+      <c r="D189">
+        <v>1.6720978580000001</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C190" s="31">
+        <v>1.5051499779999999</v>
+      </c>
+      <c r="D190" s="31">
+        <v>1.414973348</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>1.5440680440000001</v>
+      </c>
+      <c r="D191">
+        <v>1.4771212549999999</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C192" s="31">
+        <v>2.0374264979999999</v>
+      </c>
+      <c r="D192" s="31">
+        <v>2.0043213739999999</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>1.397940009</v>
+      </c>
+      <c r="D193">
+        <v>1.322219295</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C194" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D194" s="31">
+        <v>0.60205999099999996</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>1.278753601</v>
+      </c>
+      <c r="D195">
+        <v>1.230448921</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C196" s="31">
+        <v>2.0492180229999999</v>
+      </c>
+      <c r="D196" s="31">
+        <v>1.903089987</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>2.4048337169999998</v>
+      </c>
+      <c r="D197">
+        <v>2.0718820070000001</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C198" s="31">
+        <v>2.2405492480000002</v>
+      </c>
+      <c r="D198" s="31">
+        <v>2.068185862</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>2.3692158569999999</v>
+      </c>
+      <c r="D199">
+        <v>2.093421685</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C200" s="31">
+        <v>1.7993405490000001</v>
+      </c>
+      <c r="D200" s="31">
+        <v>1.6127838569999999</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>2.3404441149999999</v>
+      </c>
+      <c r="D201">
+        <v>2.0569048510000001</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C202" s="31">
+        <v>1.1760912590000001</v>
+      </c>
+      <c r="D202" s="31">
+        <v>1.1139433519999999</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>2.3710678619999999</v>
+      </c>
+      <c r="D203">
+        <v>2.1335389079999998</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C204" s="31">
+        <v>3.3879234669999998</v>
+      </c>
+      <c r="D204" s="31">
+        <v>2.423245874</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>3.5614591710000001</v>
+      </c>
+      <c r="D205">
+        <v>2.51054501</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C206" s="31">
+        <v>2.1303337679999998</v>
+      </c>
+      <c r="D206" s="31">
+        <v>1.9294189260000001</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C207">
+        <v>2.1172712960000002</v>
+      </c>
+      <c r="D207">
+        <v>1.986771734</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C208" s="31">
+        <v>3.3554515199999999</v>
+      </c>
+      <c r="D208" s="31">
+        <v>2.3560258570000001</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C209">
+        <v>3.7058637120000002</v>
+      </c>
+      <c r="D209">
+        <v>2.523746467</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C210" s="31">
+        <v>3.0170333390000001</v>
+      </c>
+      <c r="D210" s="31">
+        <v>2.28780173</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C211">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="D211">
+        <v>0.30102999600000002</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C212" s="31">
+        <v>0</v>
+      </c>
+      <c r="D212" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C213">
+        <v>2.3944516810000001</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C214" s="31">
+        <v>2.4842998390000002</v>
+      </c>
+      <c r="D214" s="31">
+        <v>1.9493900070000001</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C215">
+        <v>1.602059991</v>
+      </c>
+      <c r="D215">
+        <v>1.5185139400000001</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C216" s="31">
+        <v>2.190331698</v>
+      </c>
+      <c r="D216" s="31">
+        <v>1.8692317199999999</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>1.4623979979999999</v>
+      </c>
+      <c r="D217">
+        <v>1.361727836</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C218" s="31">
+        <v>2.71432976</v>
+      </c>
+      <c r="D218" s="31">
+        <v>2.3031960570000001</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>2.225309282</v>
+      </c>
+      <c r="D219">
+        <v>1.8573324959999999</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C220" s="31">
+        <v>1.1760912590000001</v>
+      </c>
+      <c r="D220" s="31">
+        <v>1.1139433519999999</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>2.8401060939999998</v>
+      </c>
+      <c r="D221">
+        <v>2.2671717280000001</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C222" s="31">
+        <v>3.6316466630000002</v>
+      </c>
+      <c r="D222" s="31">
+        <v>2.5198279939999999</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>1.968482949</v>
+      </c>
+      <c r="D223">
+        <v>1.72427587</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C224" s="31">
+        <v>1.62324929</v>
+      </c>
+      <c r="D224" s="31">
+        <v>1.556302501</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>2.2201080879999999</v>
+      </c>
+      <c r="D225">
+        <v>1.812913357</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C226" s="31">
+        <v>2.621176282</v>
+      </c>
+      <c r="D226" s="31">
+        <v>2.2455126679999999</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>2.439332694</v>
+      </c>
+      <c r="D227">
+        <v>2.1553360370000001</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C228" s="31">
+        <v>3.1411360899999998</v>
+      </c>
+      <c r="D228" s="31">
+        <v>2.4183012910000001</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>3.584331224</v>
+      </c>
+      <c r="D229">
+        <v>2.450249108</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C230" s="31">
+        <v>2.7715874810000001</v>
+      </c>
+      <c r="D230" s="31">
+        <v>2.3096301669999999</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>3.9697885369999999</v>
+      </c>
+      <c r="D231">
+        <v>2.5276299010000001</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C232" s="31">
+        <v>3.4838724540000001</v>
+      </c>
+      <c r="D232" s="31">
+        <v>2.3996737210000001</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>1.1461280359999999</v>
+      </c>
+      <c r="D233">
+        <v>1.1139433519999999</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C234" s="31">
+        <v>0.77815124999999996</v>
+      </c>
+      <c r="D234" s="31">
+        <v>0.77815124999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>2.1430148</v>
+      </c>
+      <c r="D235">
+        <v>1.8920946030000001</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C236" s="31">
+        <v>3.1209028179999998</v>
+      </c>
+      <c r="D236" s="31">
+        <v>2.3579348470000001</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>3.0366288950000002</v>
+      </c>
+      <c r="D237">
+        <v>2.3443922740000001</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C238" s="31">
+        <v>3.873553094</v>
+      </c>
+      <c r="D238" s="31">
+        <v>2.588831726</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>1.9444826719999999</v>
+      </c>
+      <c r="D239">
+        <v>1.8195439360000001</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C240" s="31">
+        <v>2.9956351950000002</v>
+      </c>
+      <c r="D240" s="31">
+        <v>2.3502480179999998</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>1.653212514</v>
+      </c>
+      <c r="D241">
+        <v>1.579783597</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C242" s="31">
+        <v>1.4913616940000001</v>
+      </c>
+      <c r="D242" s="31">
+        <v>1.4471580310000001</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>2.1139433520000002</v>
+      </c>
+      <c r="D243">
+        <v>1.9344984510000001</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C244" s="31">
+        <v>2.2201080879999999</v>
+      </c>
+      <c r="D244" s="31">
+        <v>2.0170333390000001</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C246" s="31">
+        <v>2.0569048510000001</v>
+      </c>
+      <c r="D246" s="31">
+        <v>1.8512583490000001</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>3.5960470080000002</v>
+      </c>
+      <c r="D247">
+        <v>2.5211380839999999</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C248" s="31">
+        <v>1.0413926849999999</v>
+      </c>
+      <c r="D248" s="31">
+        <v>1.0413926849999999</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C249">
+        <v>2.9180303369999998</v>
+      </c>
+      <c r="D249">
+        <v>2.2528530309999999</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C250" s="31">
+        <v>3.1559430179999999</v>
+      </c>
+      <c r="D250" s="31">
+        <v>2.3944516810000001</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>2.8790958799999999</v>
+      </c>
+      <c r="D251">
+        <v>2.3654879850000001</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C252" s="31">
+        <v>3.1398790860000001</v>
+      </c>
+      <c r="D252" s="31">
+        <v>2.3579348470000001</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>3.5132175999999999</v>
+      </c>
+      <c r="D253">
+        <v>2.4871383749999998</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C254" s="31">
+        <v>1.278753601</v>
+      </c>
+      <c r="D254" s="31">
+        <v>1.204119983</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>2.2201080879999999</v>
+      </c>
+      <c r="D255">
+        <v>1.9493900070000001</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C256" s="31">
+        <v>2.7678976159999999</v>
+      </c>
+      <c r="D256" s="31">
+        <v>2.342422681</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>2.3710678619999999</v>
+      </c>
+      <c r="D257">
+        <v>2.053078443</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C258" s="31">
+        <v>1.1760912590000001</v>
+      </c>
+      <c r="D258" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C259">
+        <v>2.8350561019999998</v>
+      </c>
+      <c r="D259">
+        <v>2.190331698</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C260" s="31">
+        <v>2.5899496009999998</v>
+      </c>
+      <c r="D260" s="31">
+        <v>2.225309282</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>2.7824726239999999</v>
+      </c>
+      <c r="D261">
+        <v>2.2624510899999999</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C262" s="31">
+        <v>3.7797407509999998</v>
+      </c>
+      <c r="D262" s="31">
+        <v>2.457881897</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C263">
+        <v>2.3873898260000002</v>
+      </c>
+      <c r="D263">
+        <v>2.053078443</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C264" s="31">
+        <v>3.4929000110000001</v>
+      </c>
+      <c r="D264" s="31">
+        <v>2.4313637639999999</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>1.6127838569999999</v>
+      </c>
+      <c r="D265">
+        <v>1.579783597</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C266" s="31">
+        <v>1.7403626889999999</v>
+      </c>
+      <c r="D266" s="31">
+        <v>1.556302501</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>3.547159121</v>
+      </c>
+      <c r="D267">
+        <v>2.4517864359999999</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C268" s="31">
+        <v>2.991669007</v>
+      </c>
+      <c r="D268" s="31">
+        <v>2.326335861</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C269">
+        <v>2.1172712960000002</v>
+      </c>
+      <c r="D269">
+        <v>1.9294189260000001</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C270" s="31">
+        <v>1.69019608</v>
+      </c>
+      <c r="D270" s="31">
+        <v>1.4913616940000001</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C271">
+        <v>3.0856472880000001</v>
+      </c>
+      <c r="D271">
+        <v>2.3710678619999999</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C272" s="31">
+        <v>3.3147096930000002</v>
+      </c>
+      <c r="D272" s="31">
+        <v>2.3926969530000002</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>1.69019608</v>
+      </c>
+      <c r="D273">
+        <v>1.6434526759999999</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C274" s="31">
+        <v>3.2208922489999998</v>
+      </c>
+      <c r="D274" s="31">
+        <v>2.3384564939999999</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C275">
+        <v>2.3838153659999999</v>
+      </c>
+      <c r="D275">
+        <v>1.8976270909999999</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C276" s="31">
+        <v>2.5415792439999998</v>
+      </c>
+      <c r="D276" s="31">
+        <v>2.1583624920000002</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>2.190331698</v>
+      </c>
+      <c r="D277">
+        <v>1.9444826719999999</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C278" s="31">
+        <v>2.8350561019999998</v>
+      </c>
+      <c r="D278" s="31">
+        <v>2.3096301669999999</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>2.5670263659999999</v>
+      </c>
+      <c r="D279">
+        <v>2.1398790860000001</v>
+      </c>
+    </row>
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C280" s="31">
+        <v>3.6519560700000002</v>
+      </c>
+      <c r="D280" s="31">
+        <v>2.4712917110000001</v>
+      </c>
+    </row>
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C281">
+        <v>1.0413926849999999</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C282" s="31">
+        <v>3.4092566519999998</v>
+      </c>
+      <c r="D282" s="31">
+        <v>2.3463529740000002</v>
+      </c>
+    </row>
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>1.0413926849999999</v>
+      </c>
+      <c r="D283">
+        <v>0.95424250899999996</v>
+      </c>
+    </row>
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C284" s="31">
+        <v>1.9731278539999999</v>
+      </c>
+      <c r="D284" s="31">
+        <v>1.792391689</v>
+      </c>
+    </row>
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>2.0569048510000001</v>
+      </c>
+      <c r="D285">
+        <v>1.880813592</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C286" s="31">
+        <v>3.8664054980000002</v>
+      </c>
+      <c r="D286" s="31">
+        <v>2.523746467</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>2.326335861</v>
+      </c>
+      <c r="D287">
+        <v>2.0644579890000001</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C288" s="31">
+        <v>2.7084209000000001</v>
+      </c>
+      <c r="D288" s="31">
+        <v>2.28780173</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>3.2907022430000001</v>
+      </c>
+      <c r="D289">
+        <v>2.4149733480000002</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C290" s="31">
+        <v>2.6483600109999998</v>
+      </c>
+      <c r="D290" s="31">
+        <v>2.2013971240000001</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>1.653212514</v>
+      </c>
+      <c r="D291">
+        <v>1.5314789170000001</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C292" s="31">
+        <v>0.84509803999999999</v>
+      </c>
+      <c r="D292" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>2.1760912590000001</v>
+      </c>
+      <c r="D293">
+        <v>1.968482949</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C294" s="31">
+        <v>2.9395192529999998</v>
+      </c>
+      <c r="D294" s="31">
+        <v>2.3521825180000002</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C295">
+        <v>2.662757832</v>
+      </c>
+      <c r="D295">
+        <v>2.2455126679999999</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C296" s="31">
+        <v>3.4729026520000001</v>
+      </c>
+      <c r="D296" s="31">
+        <v>2.3856062740000001</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C297">
+        <v>2.7937903849999999</v>
+      </c>
+      <c r="D297">
+        <v>2.2528530309999999</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C298" s="31">
+        <v>2.6384892569999998</v>
+      </c>
+      <c r="D298" s="31">
+        <v>2.2121876039999999</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C299">
+        <v>2.6201360550000001</v>
+      </c>
+      <c r="D299">
+        <v>2.2068258759999999</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C300" s="31">
+        <v>2.3096301669999999</v>
+      </c>
+      <c r="D300" s="31">
+        <v>1.991226076</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C301">
+        <v>1.72427587</v>
+      </c>
+      <c r="D301">
+        <v>1.602059991</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C302" s="31">
+        <v>0.60205999099999996</v>
+      </c>
+      <c r="D302" s="31">
+        <v>0.60205999099999996</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C303">
+        <v>2.7379873259999998</v>
+      </c>
+      <c r="D303">
+        <v>2.3053513689999998</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C304" s="31">
+        <v>1.255272505</v>
+      </c>
+      <c r="D304" s="31">
+        <v>1.230448921</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C305">
+        <v>1.204119983</v>
+      </c>
+      <c r="D305">
+        <v>1.1139433519999999</v>
+      </c>
+    </row>
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C306" s="31">
+        <v>1.7323937599999999</v>
+      </c>
+      <c r="D306" s="31">
+        <v>1.579783597</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C307">
+        <v>2.2671717280000001</v>
+      </c>
+      <c r="D307">
+        <v>2.0334237549999998</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C308" s="31">
+        <v>0.84509803999999999</v>
+      </c>
+      <c r="D308" s="31">
+        <v>0.84509803999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>2.149219113</v>
+      </c>
+      <c r="D309">
+        <v>1.9395192530000001</v>
+      </c>
+    </row>
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C310" s="31">
+        <v>2.9876662650000001</v>
+      </c>
+      <c r="D310" s="31">
+        <v>2.2671717280000001</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C311">
+        <v>3.5694909539999999</v>
+      </c>
+      <c r="D311">
+        <v>2.4517864359999999</v>
+      </c>
+    </row>
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C312" s="31">
+        <v>2.7972675410000001</v>
+      </c>
+      <c r="D312" s="31">
+        <v>2.2405492480000002</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C313">
+        <v>0.90308998699999998</v>
+      </c>
+      <c r="D313">
+        <v>0.90308998699999998</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C314" s="31">
+        <v>1.0413926849999999</v>
+      </c>
+      <c r="D314" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C315">
+        <v>1.4471580310000001</v>
+      </c>
+      <c r="D315">
+        <v>1.4471580310000001</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C316" s="31">
+        <v>0</v>
+      </c>
+      <c r="D316" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C317">
+        <v>3.06069784</v>
+      </c>
+      <c r="D317">
+        <v>2.3159703450000002</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C318" s="31">
+        <v>2.4842998390000002</v>
+      </c>
+      <c r="D318" s="31">
+        <v>2.1461280359999999</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C319">
+        <v>3.1731862679999998</v>
+      </c>
+      <c r="D319">
+        <v>2.3944516810000001</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C320" s="31">
+        <v>2.3180633350000002</v>
+      </c>
+      <c r="D320" s="31">
+        <v>1.954242509</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C321">
+        <v>1.908485019</v>
+      </c>
+      <c r="D321">
+        <v>1.69019608</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C322" s="31">
+        <v>2.3180633350000002</v>
+      </c>
+      <c r="D322" s="31">
+        <v>2.0791812460000001</v>
+      </c>
+    </row>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C323">
+        <v>1.204119983</v>
+      </c>
+      <c r="D323">
+        <v>1.1139433519999999</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C324" s="31">
+        <v>2.4456042029999998</v>
+      </c>
+      <c r="D324" s="31">
+        <v>2.0718820070000001</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C325">
+        <v>3.10002573</v>
+      </c>
+      <c r="D325">
+        <v>2.5065050320000002</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C326" s="31">
+        <v>2.5037906830000001</v>
+      </c>
+      <c r="D326" s="31">
+        <v>2.025305865</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C327">
+        <v>3.5375672570000001</v>
+      </c>
+      <c r="D327">
+        <v>2.485721426</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C328" s="31">
+        <v>2.559906625</v>
+      </c>
+      <c r="D328" s="31">
+        <v>2.1673173349999999</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C329">
+        <v>2.1702617150000001</v>
+      </c>
+      <c r="D329">
+        <v>1.963787827</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C330" s="31">
+        <v>2.583198774</v>
+      </c>
+      <c r="D330" s="31">
+        <v>2.198657087</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C331">
+        <v>0.47712125500000002</v>
+      </c>
+      <c r="D331">
+        <v>0.47712125500000002</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C332" s="31">
+        <v>2.7032913779999999</v>
+      </c>
+      <c r="D332" s="31">
+        <v>2.3765769570000002</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C333">
+        <v>3.932169246</v>
+      </c>
+      <c r="D333">
+        <v>2.5932860670000002</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C334" s="31">
+        <v>2.9795483749999998</v>
+      </c>
+      <c r="D334" s="31">
+        <v>2.3443922740000001</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C335">
+        <v>3.0962145849999998</v>
+      </c>
+      <c r="D335">
+        <v>2.2741578489999998</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C336" s="31">
+        <v>2.0043213739999999</v>
+      </c>
+      <c r="D336" s="31">
+        <v>1.8450980400000001</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C337">
+        <v>1.397940009</v>
+      </c>
+      <c r="D337">
+        <v>1.342422681</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C338" s="31">
+        <v>3.5529114499999999</v>
+      </c>
+      <c r="D338" s="31">
+        <v>2.4361626470000002</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C339">
+        <v>3.894205259</v>
+      </c>
+      <c r="D339">
+        <v>2.4563660330000001</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C340" s="31">
+        <v>3.006466042</v>
+      </c>
+      <c r="D340" s="31">
+        <v>2.3692158569999999</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C341">
+        <v>1.806179974</v>
+      </c>
+      <c r="D341">
+        <v>1.716003344</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C342" s="31">
+        <v>0.77815124999999996</v>
+      </c>
+      <c r="D342" s="31">
+        <v>0.77815124999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C343">
+        <v>1.5185139400000001</v>
+      </c>
+      <c r="D343">
+        <v>1.4771212549999999</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C344" s="31">
+        <v>2.1238516409999999</v>
+      </c>
+      <c r="D344" s="31">
+        <v>1.903089987</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C345">
+        <v>3.1075491300000002</v>
+      </c>
+      <c r="D345">
+        <v>2.413299764</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C346" s="31">
+        <v>2.9148718179999999</v>
+      </c>
+      <c r="D346" s="31">
+        <v>2.2855573090000001</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C347">
+        <v>2.8965262169999999</v>
+      </c>
+      <c r="D347">
+        <v>2.3463529740000002</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C348" s="31">
+        <v>1.86332286</v>
+      </c>
+      <c r="D348" s="31">
+        <v>1.7403626889999999</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C349">
+        <v>1.7403626889999999</v>
+      </c>
+      <c r="D349">
+        <v>1.556302501</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C350" s="31">
+        <v>0.47712125500000002</v>
+      </c>
+      <c r="D350" s="31">
+        <v>0.47712125500000002</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C351">
+        <v>1.8388490909999999</v>
+      </c>
+      <c r="D351">
+        <v>1.716003344</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C352" s="31">
+        <v>2.8567288899999999</v>
+      </c>
+      <c r="D352" s="31">
+        <v>2.3747483460000001</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C353">
+        <v>2.8591382969999999</v>
+      </c>
+      <c r="D353">
+        <v>2.2695129440000001</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C354" s="31">
+        <v>2.152288344</v>
+      </c>
+      <c r="D354" s="31">
+        <v>1.9493900070000001</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C355">
+        <v>1.8976270909999999</v>
+      </c>
+      <c r="D355">
+        <v>1.7558748559999999</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C356" s="31">
+        <v>1.7993405490000001</v>
+      </c>
+      <c r="D356" s="31">
+        <v>1.6812412370000001</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C357">
+        <v>1.4471580310000001</v>
+      </c>
+      <c r="D357">
+        <v>1.342422681</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C358" s="31">
+        <v>2.3304137730000001</v>
+      </c>
+      <c r="D358" s="31">
+        <v>2.0492180229999999</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C359">
+        <v>1.8388490909999999</v>
+      </c>
+      <c r="D359">
+        <v>1.6434526759999999</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C360" s="31">
+        <v>1.3802112419999999</v>
+      </c>
+      <c r="D360" s="31">
+        <v>1.342422681</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C361">
+        <v>2.2695129440000001</v>
+      </c>
+      <c r="D361">
+        <v>1.8450980400000001</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C362" s="31">
+        <v>2.478566496</v>
+      </c>
+      <c r="D362" s="31">
+        <v>2.152288344</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C363">
+        <v>2.499687083</v>
+      </c>
+      <c r="D363">
+        <v>2.0644579890000001</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C364" s="31">
+        <v>1.5682017239999999</v>
+      </c>
+      <c r="D364" s="31">
+        <v>1.4771212549999999</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C365">
+        <v>2.6053050459999998</v>
+      </c>
+      <c r="D365">
+        <v>2.1702617150000001</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C366" s="31">
+        <v>2.0827853699999999</v>
+      </c>
+      <c r="D366" s="31">
+        <v>1.995635195</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C367">
+        <v>0.95424250899999996</v>
+      </c>
+      <c r="D367">
+        <v>0.90308998699999998</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C368" s="31">
+        <v>1</v>
+      </c>
+      <c r="D368" s="31">
+        <v>0.95424250899999996</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C369">
+        <v>3.5048784589999999</v>
+      </c>
+      <c r="D369">
+        <v>2.3560258570000001</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C370" s="31">
+        <v>1.6334684559999999</v>
+      </c>
+      <c r="D370" s="31">
+        <v>1.5051499779999999</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C371">
+        <v>0.60205999099999996</v>
+      </c>
+      <c r="D371">
+        <v>0.60205999099999996</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C372" s="31">
+        <v>1.62324929</v>
+      </c>
+      <c r="D372" s="31">
+        <v>1.5314789170000001</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C373">
+        <v>2.0899051110000002</v>
+      </c>
+      <c r="D373">
+        <v>1.9395192530000001</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C374" s="31">
+        <v>1.5314789170000001</v>
+      </c>
+      <c r="D374" s="31">
+        <v>1.3802112419999999</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C375">
+        <v>2.1303337679999998</v>
+      </c>
+      <c r="D375">
+        <v>2.0413926849999999</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C376" s="31">
+        <v>3.0017337130000001</v>
+      </c>
+      <c r="D376" s="31">
+        <v>2.326335861</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C377">
+        <v>1.6720978580000001</v>
+      </c>
+      <c r="D377">
+        <v>1.556302501</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C378" s="31">
+        <v>2.0293837780000001</v>
+      </c>
+      <c r="D378" s="31">
+        <v>1.8450980400000001</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C379">
+        <v>1.0791812460000001</v>
+      </c>
+      <c r="D379">
+        <v>1.0791812460000001</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C380" s="31">
+        <v>1.322219295</v>
+      </c>
+      <c r="D380" s="31">
+        <v>1.278753601</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C381">
+        <v>1.5440680440000001</v>
+      </c>
+      <c r="D381">
+        <v>1.4313637640000001</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C382" s="31">
+        <v>1.255272505</v>
+      </c>
+      <c r="D382" s="31">
+        <v>1.204119983</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C383">
+        <v>2.6618126860000002</v>
+      </c>
+      <c r="D383">
+        <v>2.2121876039999999</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C384" s="31">
+        <v>2.5132175999999999</v>
+      </c>
+      <c r="D384" s="31">
+        <v>2.181843588</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C385">
+        <v>3.3508292740000001</v>
+      </c>
+      <c r="D385">
+        <v>2.4913616940000001</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C386" s="31">
+        <v>1.6812412370000001</v>
+      </c>
+      <c r="D386" s="31">
+        <v>1.4623979979999999</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C387">
+        <v>2.4487063199999999</v>
+      </c>
+      <c r="D387">
+        <v>2.127104798</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C388" s="31">
+        <v>1.880813592</v>
+      </c>
+      <c r="D388" s="31">
+        <v>1.7481880270000001</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C390" s="31">
+        <v>2.6031443730000001</v>
+      </c>
+      <c r="D390" s="31">
+        <v>2.195899652</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C391">
+        <v>2.6919651029999998</v>
+      </c>
+      <c r="D391">
+        <v>2.2624510899999999</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C392" s="31">
+        <v>0.84509803999999999</v>
+      </c>
+      <c r="D392" s="31">
+        <v>0.77815124999999996</v>
+      </c>
+    </row>
+    <row r="393" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C393">
+        <v>2.0718820070000001</v>
+      </c>
+      <c r="D393">
+        <v>1.954242509</v>
+      </c>
+    </row>
+    <row r="394" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C394" s="31">
+        <v>2.190331698</v>
+      </c>
+      <c r="D394" s="31">
+        <v>1.977723605</v>
+      </c>
+    </row>
+    <row r="395" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C395">
+        <v>3.4225898400000001</v>
+      </c>
+      <c r="D395">
+        <v>2.3463529740000002</v>
+      </c>
+    </row>
+    <row r="396" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C396" s="31">
+        <v>1.1139433519999999</v>
+      </c>
+      <c r="D396" s="31">
+        <v>1.0413926849999999</v>
+      </c>
+    </row>
+    <row r="397" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C397">
+        <v>1.5185139400000001</v>
+      </c>
+      <c r="D397">
+        <v>1.4913616940000001</v>
+      </c>
+    </row>
+    <row r="398" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C398" s="31">
+        <v>2.729974286</v>
+      </c>
+      <c r="D398" s="31">
+        <v>2.2148438480000001</v>
+      </c>
+    </row>
+    <row r="399" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C399">
+        <v>2.565847819</v>
+      </c>
+      <c r="D399">
+        <v>2.093421685</v>
+      </c>
+    </row>
+    <row r="400" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C400" s="31">
+        <v>2.5717088320000001</v>
+      </c>
+      <c r="D400" s="31">
+        <v>2.1789769470000002</v>
+      </c>
+    </row>
+    <row r="401" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C401">
+        <v>3.2853322280000001</v>
+      </c>
+      <c r="D401">
+        <v>2.3579348470000001</v>
+      </c>
+    </row>
+    <row r="402" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C402" s="31">
+        <v>2.181843588</v>
+      </c>
+      <c r="D402" s="31">
+        <v>2.0863598310000002</v>
+      </c>
+    </row>
+    <row r="403" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C403">
+        <v>3.173477643</v>
+      </c>
+      <c r="D403">
+        <v>2.4014005410000001</v>
+      </c>
+    </row>
+    <row r="404" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C404" s="31">
+        <v>2.008600172</v>
+      </c>
+      <c r="D404" s="31">
+        <v>1.806179974</v>
+      </c>
+    </row>
+    <row r="405" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C405">
+        <v>2.120573931</v>
+      </c>
+      <c r="D405">
+        <v>1.8195439360000001</v>
+      </c>
+    </row>
+    <row r="406" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C406" s="31">
+        <v>1.397940009</v>
+      </c>
+      <c r="D406" s="31">
+        <v>1.255272505</v>
+      </c>
+    </row>
+    <row r="407" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C407">
+        <v>4.2319535689999999</v>
+      </c>
+      <c r="D407">
+        <v>2.641474111</v>
+      </c>
+    </row>
+    <row r="408" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C408" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+      <c r="D408" s="31">
+        <v>0.30102999600000002</v>
+      </c>
+    </row>
+    <row r="409" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C409">
+        <v>3.0916669579999998</v>
+      </c>
+      <c r="D409">
+        <v>2.4608978430000001</v>
+      </c>
+    </row>
+    <row r="410" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C410" s="31">
+        <v>2.3502480179999998</v>
+      </c>
+      <c r="D410" s="31">
+        <v>2.127104798</v>
+      </c>
+    </row>
+    <row r="411" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C411">
+        <v>3.6338722630000002</v>
+      </c>
+      <c r="D411">
+        <v>2.5854607299999999</v>
+      </c>
+    </row>
+    <row r="412" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C412" s="31">
+        <v>2.3673559210000001</v>
+      </c>
+      <c r="D412" s="31">
+        <v>2.0827853699999999</v>
+      </c>
+    </row>
+    <row r="413" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C413">
+        <v>2.7752462599999999</v>
+      </c>
+      <c r="D413">
+        <v>2.322219295</v>
+      </c>
+    </row>
+    <row r="414" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C414" s="31">
+        <v>1.230448921</v>
+      </c>
+      <c r="D414" s="31">
+        <v>1.0413926849999999</v>
+      </c>
+    </row>
+    <row r="415" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C415">
+        <v>2.6253124510000001</v>
+      </c>
+      <c r="D415">
+        <v>2.227886705</v>
+      </c>
+    </row>
+    <row r="416" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C416" s="31">
+        <v>2.7084209000000001</v>
+      </c>
+      <c r="D416" s="31">
+        <v>2.2455126679999999</v>
+      </c>
+    </row>
+    <row r="417" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C417">
+        <v>4.1535099889999998</v>
+      </c>
+      <c r="D417">
+        <v>2.5403294750000001</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C418" s="31">
+        <v>4.0848621390000002</v>
+      </c>
+      <c r="D418" s="31">
+        <v>2.5465426629999999</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C419">
+        <v>2.9840770339999998</v>
+      </c>
+      <c r="D419">
+        <v>2.3710678619999999</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C420" s="31">
+        <v>2.0569048510000001</v>
+      </c>
+      <c r="D420" s="31">
+        <v>1.812913357</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C421">
+        <v>2.2405492480000002</v>
+      </c>
+      <c r="D421">
+        <v>2.0374264979999999</v>
+      </c>
+    </row>
+    <row r="422" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C422" s="31">
+        <v>1.301029996</v>
+      </c>
+      <c r="D422" s="31">
+        <v>1.1760912590000001</v>
+      </c>
+    </row>
+    <row r="423" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C423">
+        <v>3.1162755880000002</v>
+      </c>
+      <c r="D423">
+        <v>2.3673559210000001</v>
+      </c>
+    </row>
+    <row r="424" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C424" s="31">
+        <v>2.096910013</v>
+      </c>
+      <c r="D424" s="31">
+        <v>1.886490725</v>
+      </c>
+    </row>
+    <row r="425" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C425">
+        <v>2.149219113</v>
+      </c>
+      <c r="D425">
+        <v>2.0413926849999999</v>
+      </c>
+    </row>
+    <row r="426" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C426" s="31">
+        <v>2.2329961100000002</v>
+      </c>
+      <c r="D426" s="31">
+        <v>1.995635195</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C427">
+        <v>1.397940009</v>
+      </c>
+      <c r="D427">
+        <v>1.397940009</v>
+      </c>
+    </row>
+    <row r="428" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C428" s="31">
+        <v>1.698970004</v>
+      </c>
+      <c r="D428" s="31">
+        <v>1.579783597</v>
+      </c>
+    </row>
+    <row r="429" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C429">
+        <v>1.1461280359999999</v>
+      </c>
+      <c r="D429">
+        <v>1.1461280359999999</v>
+      </c>
+    </row>
+    <row r="430" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C430" s="31">
+        <v>1.255272505</v>
+      </c>
+      <c r="D430" s="31">
+        <v>1.204119983</v>
+      </c>
+    </row>
+    <row r="431" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C431">
+        <v>2.0334237549999998</v>
+      </c>
+      <c r="D431">
+        <v>1.7403626889999999</v>
+      </c>
+    </row>
+    <row r="432" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C432" s="31">
+        <v>1.995635195</v>
+      </c>
+      <c r="D432" s="31">
+        <v>1.9294189260000001</v>
+      </c>
+    </row>
+    <row r="433" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C433">
+        <v>0.47712125500000002</v>
+      </c>
+      <c r="D433">
+        <v>0.47712125500000002</v>
+      </c>
+    </row>
+    <row r="434" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C434" s="31">
+        <v>1.8195439360000001</v>
+      </c>
+      <c r="D434" s="31">
+        <v>1.6434526759999999</v>
+      </c>
+    </row>
+    <row r="435" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C435">
+        <v>0.77815124999999996</v>
+      </c>
+      <c r="D435">
+        <v>0.77815124999999996</v>
+      </c>
+    </row>
+    <row r="436" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C436" s="31">
+        <v>2.4183012910000001</v>
+      </c>
+      <c r="D436" s="31">
+        <v>2.1303337679999998</v>
+      </c>
+    </row>
+    <row r="437" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C437">
+        <v>2.5751878449999999</v>
+      </c>
+      <c r="D437">
+        <v>2.1643528559999998</v>
+      </c>
+    </row>
+    <row r="438" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C438" s="31">
+        <v>2.783903579</v>
+      </c>
+      <c r="D438" s="31">
+        <v>2.2764618040000002</v>
+      </c>
+    </row>
+    <row r="439" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C439">
+        <v>2.4014005410000001</v>
+      </c>
+      <c r="D439">
+        <v>2.1335389079999998</v>
+      </c>
+    </row>
+    <row r="440" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C440" s="31">
+        <v>1.4913616940000001</v>
+      </c>
+      <c r="D440" s="31">
+        <v>1.4471580310000001</v>
+      </c>
+    </row>
+    <row r="441" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C441">
+        <v>0.47712125500000002</v>
+      </c>
+      <c r="D441">
+        <v>0.47712125500000002</v>
+      </c>
+    </row>
+    <row r="442" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C442" s="31">
+        <v>2.3384564939999999</v>
+      </c>
+      <c r="D442" s="31">
+        <v>2.1335389079999998</v>
+      </c>
+    </row>
+    <row r="443" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C443">
+        <v>3.0909630770000001</v>
+      </c>
+      <c r="D443">
+        <v>2.3483048630000001</v>
+      </c>
+    </row>
+    <row r="444" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C444" s="31">
+        <v>1.342422681</v>
+      </c>
+      <c r="D444" s="31">
+        <v>1.301029996</v>
+      </c>
+    </row>
+    <row r="445" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C445">
+        <v>1.698970004</v>
+      </c>
+      <c r="D445">
+        <v>1.5051499779999999</v>
+      </c>
+    </row>
+    <row r="446" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C446" s="31">
+        <v>1.785329835</v>
+      </c>
+      <c r="D446" s="31">
+        <v>1.6720978580000001</v>
+      </c>
+    </row>
+    <row r="447" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C447">
+        <v>2.588831726</v>
+      </c>
+      <c r="D447">
+        <v>2.1875207209999998</v>
+      </c>
+    </row>
+    <row r="448" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C448" s="31">
+        <v>3.0700378669999999</v>
+      </c>
+      <c r="D448" s="31">
+        <v>2.2576785749999999</v>
+      </c>
+    </row>
+    <row r="449" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C449">
+        <v>1.8692317199999999</v>
+      </c>
+      <c r="D449">
+        <v>1.72427587</v>
+      </c>
+    </row>
+    <row r="450" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C450" s="31">
+        <v>1.770852012</v>
+      </c>
+      <c r="D450" s="31">
+        <v>1.6334684559999999</v>
+      </c>
+    </row>
+    <row r="451" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C451">
+        <v>2.2068258759999999</v>
+      </c>
+      <c r="D451">
+        <v>1.9190780919999999</v>
+      </c>
+    </row>
+    <row r="452" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C452" s="31">
+        <v>2.0755469610000001</v>
+      </c>
+      <c r="D452" s="31">
+        <v>1.9190780919999999</v>
+      </c>
+    </row>
+    <row r="453" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C453">
+        <v>2.1461280359999999</v>
+      </c>
+      <c r="D453">
+        <v>1.959041392</v>
+      </c>
+    </row>
+    <row r="454" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C454" s="31">
+        <v>1.255272505</v>
+      </c>
+      <c r="D454" s="31">
+        <v>1.230448921</v>
+      </c>
+    </row>
+    <row r="455" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C455">
+        <v>2.3710678619999999</v>
+      </c>
+      <c r="D455">
+        <v>2.149219113</v>
+      </c>
+    </row>
+    <row r="456" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C456" s="31">
+        <v>2.5550944489999998</v>
+      </c>
+      <c r="D456" s="31">
+        <v>2.1673173349999999</v>
+      </c>
+    </row>
+    <row r="457" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C457">
+        <v>2.7250945209999999</v>
+      </c>
+      <c r="D457">
+        <v>2.2600713880000001</v>
+      </c>
+    </row>
+    <row r="458" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C458" s="31">
+        <v>1.5051499779999999</v>
+      </c>
+      <c r="D458" s="31">
+        <v>1.4471580310000001</v>
+      </c>
+    </row>
+    <row r="459" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C459">
+        <v>1.6127838569999999</v>
+      </c>
+      <c r="D459">
+        <v>1.5682017239999999</v>
+      </c>
+    </row>
+    <row r="460" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C460" s="31">
+        <v>2.9400181550000002</v>
+      </c>
+      <c r="D460" s="31">
+        <v>2.2966651900000001</v>
+      </c>
+    </row>
+    <row r="461" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C461">
+        <v>1.977723605</v>
+      </c>
+      <c r="D461">
+        <v>1.7634279939999999</v>
+      </c>
+    </row>
+    <row r="462" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C462" s="31">
+        <v>2.378397901</v>
+      </c>
+      <c r="D462" s="31">
+        <v>2.127104798</v>
+      </c>
+    </row>
+    <row r="463" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C463">
+        <v>2.525044807</v>
+      </c>
+      <c r="D463">
+        <v>2.0293837780000001</v>
+      </c>
+    </row>
+    <row r="464" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C464" s="31">
+        <v>1.792391689</v>
+      </c>
+      <c r="D464" s="31">
+        <v>1.6434526759999999</v>
+      </c>
+    </row>
+    <row r="465" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C465">
+        <v>1.1139433519999999</v>
+      </c>
+      <c r="D465">
+        <v>1.0791812460000001</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C466" s="31">
+        <v>1</v>
+      </c>
+      <c r="D466" s="31">
+        <v>0.84509803999999999</v>
+      </c>
+    </row>
+    <row r="467" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C467">
+        <v>1.579783597</v>
+      </c>
+      <c r="D467">
+        <v>1.342422681</v>
+      </c>
+    </row>
+    <row r="468" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C468" s="31">
+        <v>4.4132997639999996</v>
+      </c>
+      <c r="D468" s="31">
+        <v>2.6394864889999998</v>
+      </c>
+    </row>
+    <row r="469" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C469">
+        <v>3.0374264979999999</v>
+      </c>
+      <c r="D469">
+        <v>2.301029996</v>
+      </c>
+    </row>
+    <row r="470" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C470" s="31">
+        <v>3.9203320719999999</v>
+      </c>
+      <c r="D470" s="31">
+        <v>2.4800069429999998</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C471">
+        <v>3.08350262</v>
+      </c>
+      <c r="D471">
+        <v>2.3483048630000001</v>
+      </c>
+    </row>
+    <row r="472" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C472" s="31">
+        <v>2.2988530759999999</v>
+      </c>
+      <c r="D472" s="31">
+        <v>2.0863598310000002</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C473">
+        <v>1.0413926849999999</v>
+      </c>
+      <c r="D473">
+        <v>1.0413926849999999</v>
+      </c>
+    </row>
+    <row r="474" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C474" s="31">
+        <v>3.9834909719999998</v>
+      </c>
+      <c r="D474" s="31">
+        <v>2.5365584430000001</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C475">
+        <v>1.8195439360000001</v>
+      </c>
+      <c r="D475">
+        <v>1.5910646070000001</v>
+      </c>
+    </row>
+    <row r="476" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C476" s="31">
+        <v>2.3283796030000001</v>
+      </c>
+      <c r="D476" s="31">
+        <v>2.021189299</v>
+      </c>
+    </row>
+    <row r="477" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C477">
+        <v>1.959041392</v>
+      </c>
+      <c r="D477">
+        <v>1.7558748559999999</v>
+      </c>
+    </row>
+    <row r="478" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C478" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D478" s="31">
+        <v>0.60205999099999996</v>
+      </c>
+    </row>
+    <row r="479" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C479">
+        <v>2.3996737210000001</v>
+      </c>
+      <c r="D479">
+        <v>2.1172712960000002</v>
+      </c>
+    </row>
+    <row r="480" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C480" s="31">
+        <v>2.4712917110000001</v>
+      </c>
+      <c r="D480" s="31">
+        <v>2.1613680020000001</v>
+      </c>
+    </row>
+    <row r="481" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C482" s="31">
+        <v>2.4638929890000001</v>
+      </c>
+      <c r="D482" s="31">
+        <v>2.0644579890000001</v>
+      </c>
+    </row>
+    <row r="483" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C483">
+        <v>1.770852012</v>
+      </c>
+      <c r="D483">
+        <v>1.62324929</v>
+      </c>
+    </row>
+    <row r="484" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C484" s="31">
+        <v>1.62324929</v>
+      </c>
+      <c r="D484" s="31">
+        <v>1.5440680440000001</v>
+      </c>
+    </row>
+    <row r="485" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C485">
+        <v>2.1643528559999998</v>
+      </c>
+      <c r="D485">
+        <v>1.9731278539999999</v>
+      </c>
+    </row>
+    <row r="486" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C486" s="31">
+        <v>2.4800069429999998</v>
+      </c>
+      <c r="D486" s="31">
+        <v>2.181843588</v>
+      </c>
+    </row>
+    <row r="487" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C487">
+        <v>3.9045532629999999</v>
+      </c>
+      <c r="D487">
+        <v>2.5943925499999998</v>
+      </c>
+    </row>
+    <row r="488" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C488" s="31">
+        <v>1.4471580310000001</v>
+      </c>
+      <c r="D488" s="31">
+        <v>1.278753601</v>
+      </c>
+    </row>
+    <row r="489" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C489">
+        <v>3.9384696880000001</v>
+      </c>
+      <c r="D489">
+        <v>2.4471580309999998</v>
+      </c>
+    </row>
+    <row r="490" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C490" s="31">
+        <v>2.608526034</v>
+      </c>
+      <c r="D490" s="31">
+        <v>2.1760912590000001</v>
+      </c>
+    </row>
+    <row r="491" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C491">
+        <v>1.6334684559999999</v>
+      </c>
+      <c r="D491">
+        <v>1.5185139400000001</v>
+      </c>
+    </row>
+    <row r="492" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C492" s="31">
+        <v>1.959041392</v>
+      </c>
+      <c r="D492" s="31">
+        <v>1.9138138520000001</v>
+      </c>
+    </row>
+    <row r="493" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C493">
+        <v>1.6812412370000001</v>
+      </c>
+      <c r="D493">
+        <v>1.6127838569999999</v>
+      </c>
+    </row>
+    <row r="494" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C494" s="31">
+        <v>2.2479732659999998</v>
+      </c>
+      <c r="D494" s="31">
+        <v>1.963787827</v>
+      </c>
+    </row>
+    <row r="495" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C495">
+        <v>3.607240504</v>
+      </c>
+      <c r="D495">
+        <v>2.3838153659999999</v>
+      </c>
+    </row>
+    <row r="496" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C496" s="31">
+        <v>2.8585371980000001</v>
+      </c>
+      <c r="D496" s="31">
+        <v>2.3180633350000002</v>
+      </c>
+    </row>
+    <row r="497" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C497">
+        <v>1.991226076</v>
+      </c>
+      <c r="D497">
+        <v>1.785329835</v>
+      </c>
+    </row>
+    <row r="498" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C498" s="31">
+        <v>2.8500332579999998</v>
+      </c>
+      <c r="D498" s="31">
+        <v>2.4166405069999999</v>
+      </c>
+    </row>
+    <row r="499" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C499">
+        <v>2.6201360550000001</v>
+      </c>
+      <c r="D499">
+        <v>2.2718416069999998</v>
+      </c>
+    </row>
+    <row r="500" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C500" s="31">
+        <v>2.2600713880000001</v>
+      </c>
+      <c r="D500" s="31">
+        <v>2.0293837780000001</v>
+      </c>
+    </row>
+    <row r="501" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C501">
+        <v>1.9444826719999999</v>
+      </c>
+      <c r="D501">
+        <v>1.7558748559999999</v>
+      </c>
+    </row>
+    <row r="502" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C502" s="31">
+        <v>1.414973348</v>
+      </c>
+      <c r="D502" s="31">
+        <v>1.397940009</v>
+      </c>
+    </row>
+    <row r="503" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C503">
+        <v>3.617419747</v>
+      </c>
+      <c r="D503">
+        <v>2.428134794</v>
+      </c>
+    </row>
+    <row r="504" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C504" s="31">
+        <v>2.2355284470000001</v>
+      </c>
+      <c r="D504" s="31">
+        <v>1.880813592</v>
+      </c>
+    </row>
+    <row r="505" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C505">
+        <v>2.9180303369999998</v>
+      </c>
+      <c r="D505">
+        <v>2.2855573090000001</v>
+      </c>
+    </row>
+    <row r="506" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C506" s="31">
+        <v>1.8450980400000001</v>
+      </c>
+      <c r="D506" s="31">
+        <v>1.7403626889999999</v>
+      </c>
+    </row>
+    <row r="507" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C507">
+        <v>2.301029996</v>
+      </c>
+      <c r="D507">
+        <v>1.991226076</v>
+      </c>
+    </row>
+    <row r="508" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C508" s="31">
+        <v>1.1461280359999999</v>
+      </c>
+      <c r="D508" s="31">
+        <v>1.1461280359999999</v>
+      </c>
+    </row>
+    <row r="509" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C509">
+        <v>3.2469906989999999</v>
+      </c>
+      <c r="D509">
+        <v>2.4048337169999998</v>
+      </c>
+    </row>
+    <row r="510" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C510" s="31">
+        <v>2.2944662259999999</v>
+      </c>
+      <c r="D510" s="31">
+        <v>1.986771734</v>
+      </c>
+    </row>
+    <row r="511" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C511">
+        <v>2.6730209070000002</v>
+      </c>
+      <c r="D511">
+        <v>2.1398790860000001</v>
+      </c>
+    </row>
+    <row r="512" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C512" s="31">
+        <v>1.5910646070000001</v>
+      </c>
+      <c r="D512" s="31">
+        <v>1.5314789170000001</v>
+      </c>
+    </row>
+    <row r="513" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C513">
+        <v>3.2385478879999998</v>
+      </c>
+      <c r="D513">
+        <v>2.3729120030000002</v>
+      </c>
+    </row>
+    <row r="514" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C514" s="31">
+        <v>1.69019608</v>
+      </c>
+      <c r="D514" s="31">
+        <v>1.4471580310000001</v>
+      </c>
+    </row>
+    <row r="515" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C515">
+        <v>3.8747716369999998</v>
+      </c>
+      <c r="D515">
+        <v>2.5403294750000001</v>
+      </c>
+    </row>
+    <row r="516" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C516" s="31">
+        <v>2.301029996</v>
+      </c>
+      <c r="D516" s="31">
+        <v>2.0334237549999998</v>
+      </c>
+    </row>
+    <row r="517" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C517">
+        <v>2.5865873050000001</v>
+      </c>
+      <c r="D517">
+        <v>2.1461280359999999</v>
+      </c>
+    </row>
+    <row r="518" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C518" s="31">
+        <v>2.152288344</v>
+      </c>
+      <c r="D518" s="31">
+        <v>1.991226076</v>
+      </c>
+    </row>
+    <row r="519" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C519">
+        <v>2.1613680020000001</v>
+      </c>
+      <c r="D519">
+        <v>1.8325089130000001</v>
+      </c>
+    </row>
+    <row r="520" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C520" s="31">
+        <v>3.4762517960000001</v>
+      </c>
+      <c r="D520" s="31">
+        <v>2.485721426</v>
+      </c>
+    </row>
+    <row r="521" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C522" s="31">
+        <v>0</v>
+      </c>
+      <c r="D522" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C523">
+        <v>3.1690863569999999</v>
+      </c>
+      <c r="D523">
+        <v>2.2833012290000001</v>
+      </c>
+    </row>
+    <row r="524" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C524" s="31">
+        <v>3.4256972129999999</v>
+      </c>
+      <c r="D524" s="31">
+        <v>2.4487063199999999</v>
+      </c>
+    </row>
+    <row r="525" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C525">
+        <v>3.4649364290000002</v>
+      </c>
+      <c r="D525">
+        <v>2.481442629</v>
+      </c>
+    </row>
+    <row r="526" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C526" s="31">
+        <v>3.8104341559999999</v>
+      </c>
+      <c r="D526" s="31">
+        <v>2.4983105540000001</v>
+      </c>
+    </row>
+    <row r="527" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C527">
+        <v>2.1367205669999998</v>
+      </c>
+      <c r="D527">
+        <v>1.903089987</v>
+      </c>
+    </row>
+    <row r="528" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C528" s="31">
+        <v>2.6655809910000001</v>
+      </c>
+      <c r="D528" s="31">
+        <v>2.1760912590000001</v>
+      </c>
+    </row>
+    <row r="529" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C529">
+        <v>0.60205999099999996</v>
+      </c>
+      <c r="D529">
+        <v>0.60205999099999996</v>
+      </c>
+    </row>
+    <row r="530" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C530" s="31">
+        <v>1.986771734</v>
+      </c>
+      <c r="D530" s="31">
+        <v>1.8692317199999999</v>
+      </c>
+    </row>
+    <row r="531" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C531">
+        <v>1.322219295</v>
+      </c>
+      <c r="D531">
+        <v>1.230448921</v>
+      </c>
+    </row>
+    <row r="532" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C532" s="31">
+        <v>2.5037906830000001</v>
+      </c>
+      <c r="D532" s="31">
+        <v>2.1875207209999998</v>
+      </c>
+    </row>
+    <row r="533" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C533">
+        <v>1.7403626889999999</v>
+      </c>
+      <c r="D533">
+        <v>1.6812412370000001</v>
+      </c>
+    </row>
+    <row r="534" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C534" s="31">
+        <v>3.0370278800000001</v>
+      </c>
+      <c r="D534" s="31">
+        <v>2.421603927</v>
+      </c>
+    </row>
+    <row r="535" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C535">
+        <v>3.130655349</v>
+      </c>
+      <c r="D535">
+        <v>2.3180633350000002</v>
+      </c>
+    </row>
+    <row r="536" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C536" s="31">
+        <v>3.3946267639999999</v>
+      </c>
+      <c r="D536" s="31">
+        <v>2.361727836</v>
+      </c>
+    </row>
+    <row r="537" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C537">
+        <v>4.0072782470000003</v>
+      </c>
+      <c r="D537">
+        <v>2.5998830719999999</v>
+      </c>
+    </row>
+    <row r="538" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C538" s="31">
+        <v>2.0374264979999999</v>
+      </c>
+      <c r="D538" s="31">
+        <v>1.8388490909999999</v>
+      </c>
+    </row>
+    <row r="539" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C539">
+        <v>4.294906911</v>
+      </c>
+      <c r="D539">
+        <v>2.608526034</v>
+      </c>
+    </row>
+    <row r="540" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C540" s="31">
+        <v>3.0979510709999998</v>
+      </c>
+      <c r="D540" s="31">
+        <v>2.4487063199999999</v>
+      </c>
+    </row>
+    <row r="541" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C541">
+        <v>3.6498214629999999</v>
+      </c>
+      <c r="D541">
+        <v>2.5751878449999999</v>
+      </c>
+    </row>
+    <row r="542" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C542" s="31">
+        <v>4.6215916760000004</v>
+      </c>
+      <c r="D542" s="31">
+        <v>2.6665179810000001</v>
+      </c>
+    </row>
+    <row r="543" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C543">
+        <v>3.4457598360000001</v>
+      </c>
+      <c r="D543">
+        <v>2.4345689039999998</v>
+      </c>
+    </row>
+    <row r="544" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C544" s="31">
+        <v>1.301029996</v>
+      </c>
+      <c r="D544" s="31">
+        <v>1.230448921</v>
+      </c>
+    </row>
+    <row r="545" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C545">
+        <v>3.2851070299999998</v>
+      </c>
+      <c r="D545">
+        <v>2.3909351069999998</v>
+      </c>
+    </row>
+    <row r="546" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C546" s="31">
+        <v>3.7496590319999998</v>
+      </c>
+      <c r="D546" s="31">
+        <v>2.5365584430000001</v>
+      </c>
+    </row>
+    <row r="547" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C547">
+        <v>3.3666097100000001</v>
+      </c>
+      <c r="D547">
+        <v>2.4742162639999998</v>
+      </c>
+    </row>
+    <row r="548" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C548" s="31">
+        <v>2.2966651900000001</v>
+      </c>
+      <c r="D548" s="31">
+        <v>2.0791812460000001</v>
+      </c>
+    </row>
+    <row r="549" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C549">
+        <v>2.9800033720000001</v>
+      </c>
+      <c r="D549">
+        <v>2.2855573090000001</v>
+      </c>
+    </row>
+    <row r="550" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C550" s="31">
+        <v>2.5314789169999998</v>
+      </c>
+      <c r="D550" s="31">
+        <v>2.1583624920000002</v>
+      </c>
+    </row>
+    <row r="551" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C551">
+        <v>2.2148438480000001</v>
+      </c>
+      <c r="D551">
+        <v>1.924279286</v>
+      </c>
+    </row>
+    <row r="552" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C552" s="31">
+        <v>2.3710678619999999</v>
+      </c>
+      <c r="D552" s="31">
+        <v>2.1172712960000002</v>
+      </c>
+    </row>
+    <row r="553" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C553">
+        <v>2.5622928639999998</v>
+      </c>
+      <c r="D553">
+        <v>2.227886705</v>
+      </c>
+    </row>
+    <row r="554" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C554" s="31">
+        <v>3.0824263009999999</v>
+      </c>
+      <c r="D554" s="31">
+        <v>2.322219295</v>
+      </c>
+    </row>
+    <row r="555" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C555">
+        <v>2.481442629</v>
+      </c>
+      <c r="D555">
+        <v>2.2013971240000001</v>
+      </c>
+    </row>
+    <row r="556" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C556" s="31">
+        <v>2.9537596920000002</v>
+      </c>
+      <c r="D556" s="31">
+        <v>2.2900346109999998</v>
+      </c>
+    </row>
+    <row r="557" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C557">
+        <v>2.806179974</v>
+      </c>
+      <c r="D557">
+        <v>2.3443922740000001</v>
+      </c>
+    </row>
+    <row r="558" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C558" s="31">
+        <v>1.1461280359999999</v>
+      </c>
+      <c r="D558" s="31">
+        <v>1.0791812460000001</v>
+      </c>
+    </row>
+    <row r="559" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C559">
+        <v>2.1846914310000001</v>
+      </c>
+      <c r="D559">
+        <v>1.991226076</v>
+      </c>
+    </row>
+    <row r="560" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C560" s="31">
+        <v>3.198657087</v>
+      </c>
+      <c r="D560" s="31">
+        <v>2.2900346109999998</v>
+      </c>
+    </row>
+    <row r="561" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C561">
+        <v>3.71222867</v>
+      </c>
+      <c r="D561">
+        <v>2.3891660840000002</v>
+      </c>
+    </row>
+    <row r="562" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C562" s="31">
+        <v>1.5910646070000001</v>
+      </c>
+      <c r="D562" s="31">
+        <v>1.4471580310000001</v>
+      </c>
+    </row>
+    <row r="563" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C563">
+        <v>2.2900346109999998</v>
+      </c>
+      <c r="D563">
+        <v>1.954242509</v>
+      </c>
+    </row>
+    <row r="564" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C564" s="31">
+        <v>0.95424250899999996</v>
+      </c>
+      <c r="D564" s="31">
+        <v>0.90308998699999998</v>
+      </c>
+    </row>
+    <row r="565" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C565">
+        <v>2.8549130219999999</v>
+      </c>
+      <c r="D565">
+        <v>2.3180633350000002</v>
+      </c>
+    </row>
+    <row r="566" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C566" s="31">
+        <v>1.6812412370000001</v>
+      </c>
+      <c r="D566" s="31">
+        <v>1.62324929</v>
+      </c>
+    </row>
+    <row r="567" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C567">
+        <v>1.230448921</v>
+      </c>
+      <c r="D567">
+        <v>1.204119983</v>
+      </c>
+    </row>
+    <row r="568" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C568" s="31">
+        <v>2.2900346109999998</v>
+      </c>
+      <c r="D568" s="31">
+        <v>1.86332286</v>
+      </c>
+    </row>
+    <row r="569" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C569">
+        <v>1.322219295</v>
+      </c>
+      <c r="D569">
+        <v>1.278753601</v>
+      </c>
+    </row>
+    <row r="570" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C570" s="31">
+        <v>1.62324929</v>
+      </c>
+      <c r="D570" s="31">
+        <v>1.397940009</v>
+      </c>
+    </row>
+    <row r="571" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C571">
+        <v>2.0827853699999999</v>
+      </c>
+      <c r="D571">
+        <v>1.8512583490000001</v>
+      </c>
+    </row>
+    <row r="572" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C572" s="31">
+        <v>2.7951845899999999</v>
+      </c>
+      <c r="D572" s="31">
+        <v>2.2405492480000002</v>
+      </c>
+    </row>
+    <row r="573" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C573">
+        <v>1.792391689</v>
+      </c>
+      <c r="D573">
+        <v>1.6812412370000001</v>
+      </c>
+    </row>
+    <row r="574" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C574" s="31">
+        <v>1.7403626889999999</v>
+      </c>
+      <c r="D574" s="31">
+        <v>1.7323937599999999</v>
+      </c>
+    </row>
+    <row r="575" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C575">
+        <v>4.4947666289999999</v>
+      </c>
+      <c r="D575">
+        <v>2.5502283530000001</v>
+      </c>
+    </row>
+    <row r="576" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C576" s="31">
+        <v>2.4969296480000001</v>
+      </c>
+      <c r="D576" s="31">
+        <v>2.0827853699999999</v>
+      </c>
+    </row>
+    <row r="577" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C577">
+        <v>1.361727836</v>
+      </c>
+      <c r="D577">
+        <v>1.278753601</v>
+      </c>
+    </row>
+    <row r="578" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C578" s="31">
+        <v>2.7387805580000002</v>
+      </c>
+      <c r="D578" s="31">
+        <v>2.1702617150000001</v>
+      </c>
+    </row>
+    <row r="579" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C579">
+        <v>1.5051499779999999</v>
+      </c>
+      <c r="D579">
+        <v>1.4471580310000001</v>
+      </c>
+    </row>
+    <row r="580" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C580" s="31">
+        <v>1.556302501</v>
+      </c>
+      <c r="D580" s="31">
+        <v>1.5185139400000001</v>
+      </c>
+    </row>
+    <row r="581" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C581">
+        <v>2.1702617150000001</v>
+      </c>
+      <c r="D581">
+        <v>1.954242509</v>
+      </c>
+    </row>
+    <row r="582" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C582" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D582" s="31">
+        <v>0.60205999099999996</v>
+      </c>
+    </row>
+    <row r="583" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C583">
+        <v>3.4312028849999998</v>
+      </c>
+      <c r="D583">
+        <v>2.336459734</v>
+      </c>
+    </row>
+    <row r="584" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C584" s="31">
+        <v>3.4497868469999999</v>
+      </c>
+      <c r="D584" s="31">
+        <v>2.4361626470000002</v>
+      </c>
+    </row>
+    <row r="585" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C585">
+        <v>2.3926969530000002</v>
+      </c>
+      <c r="D585">
+        <v>2.0492180229999999</v>
+      </c>
+    </row>
+    <row r="586" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C586" s="31">
+        <v>3.6079908590000001</v>
+      </c>
+      <c r="D586" s="31">
+        <v>2.5118833610000002</v>
+      </c>
+    </row>
+    <row r="587" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C587">
+        <v>2.4116197060000002</v>
+      </c>
+      <c r="D587">
+        <v>2.1038037209999998</v>
+      </c>
+    </row>
+    <row r="588" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C588" s="31">
+        <v>3.4580331919999998</v>
+      </c>
+      <c r="D588" s="31">
+        <v>2.397940009</v>
+      </c>
+    </row>
+    <row r="589" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C589">
+        <v>3.265053789</v>
+      </c>
+      <c r="D589">
+        <v>2.4941545939999998</v>
+      </c>
+    </row>
+    <row r="590" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C590" s="31">
+        <v>2.0453229789999998</v>
+      </c>
+      <c r="D590" s="31">
+        <v>1.792391689</v>
+      </c>
+    </row>
+    <row r="591" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C591">
+        <v>2.3201462859999999</v>
+      </c>
+      <c r="D591">
+        <v>2.0413926849999999</v>
+      </c>
+    </row>
+    <row r="592" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C592" s="31">
+        <v>1.7634279939999999</v>
+      </c>
+      <c r="D592" s="31">
+        <v>1.579783597</v>
+      </c>
+    </row>
+    <row r="593" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C593">
+        <v>3.7734207230000001</v>
+      </c>
+      <c r="D593">
+        <v>2.532754379</v>
+      </c>
+    </row>
+    <row r="594" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C594" s="31">
+        <v>2.4265112609999999</v>
+      </c>
+      <c r="D594" s="31">
+        <v>2.093421685</v>
+      </c>
+    </row>
+    <row r="595" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C595">
+        <v>2.120573931</v>
+      </c>
+      <c r="D595">
+        <v>1.954242509</v>
+      </c>
+    </row>
+    <row r="596" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C596" s="31">
+        <v>2.6473829699999998</v>
+      </c>
+      <c r="D596" s="31">
+        <v>2.2304489209999998</v>
+      </c>
+    </row>
+    <row r="597" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C597">
+        <v>2.06069784</v>
+      </c>
+      <c r="D597">
+        <v>1.806179974</v>
+      </c>
+    </row>
+    <row r="598" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C598" s="31">
+        <v>0.47712125500000002</v>
+      </c>
+      <c r="D598" s="31">
+        <v>0.47712125500000002</v>
+      </c>
+    </row>
+    <row r="599" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C599">
+        <v>1.6812412370000001</v>
+      </c>
+      <c r="D599">
+        <v>1.5314789170000001</v>
+      </c>
+    </row>
+    <row r="600" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C600" s="31">
+        <v>2.7497363159999999</v>
+      </c>
+      <c r="D600" s="31">
+        <v>2.2380461029999998</v>
+      </c>
+    </row>
+    <row r="601" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C601">
+        <v>4.4982416130000002</v>
+      </c>
+      <c r="D601">
+        <v>2.698970004</v>
+      </c>
+    </row>
+    <row r="602" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C602" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+      <c r="D602" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+    </row>
+    <row r="603" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C603">
+        <v>2.2148438480000001</v>
+      </c>
+      <c r="D603">
+        <v>1.963787827</v>
+      </c>
+    </row>
+    <row r="604" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C604" s="31">
+        <v>0.77815124999999996</v>
+      </c>
+      <c r="D604" s="31">
+        <v>0.69897000399999998</v>
+      </c>
+    </row>
+    <row r="605" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C605">
+        <v>1.954242509</v>
+      </c>
+      <c r="D605">
+        <v>1.7558748559999999</v>
+      </c>
+    </row>
+    <row r="606" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C606" s="31">
+        <v>2.0569048510000001</v>
+      </c>
+      <c r="D606" s="31">
+        <v>1.826074803</v>
+      </c>
+    </row>
+    <row r="607" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C607">
+        <v>1.4913616940000001</v>
+      </c>
+      <c r="D607">
+        <v>1.414973348</v>
+      </c>
+    </row>
+    <row r="608" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C608" s="31">
+        <v>1.5185139400000001</v>
+      </c>
+      <c r="D608" s="31">
+        <v>1.4771212549999999</v>
+      </c>
+    </row>
+    <row r="609" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C609">
+        <v>3.1386184340000001</v>
+      </c>
+      <c r="D609">
+        <v>2.2600713880000001</v>
+      </c>
+    </row>
+    <row r="610" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C610" s="31">
+        <v>1.4623979979999999</v>
+      </c>
+      <c r="D610" s="31">
+        <v>1.361727836</v>
+      </c>
+    </row>
+    <row r="611" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C611">
+        <v>1.9731278539999999</v>
+      </c>
+      <c r="D611">
+        <v>1.8195439360000001</v>
+      </c>
+    </row>
+    <row r="612" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C612" s="31">
+        <v>2.5899496009999998</v>
+      </c>
+      <c r="D612" s="31">
+        <v>2.127104798</v>
+      </c>
+    </row>
+    <row r="613" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C613">
+        <v>2.3729120030000002</v>
+      </c>
+      <c r="D613">
+        <v>2.021189299</v>
+      </c>
+    </row>
+    <row r="614" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C614" s="31">
+        <v>1.7075701759999999</v>
+      </c>
+      <c r="D614" s="31">
+        <v>1.4771212549999999</v>
+      </c>
+    </row>
+    <row r="615" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C615">
+        <v>1.8388490909999999</v>
+      </c>
+      <c r="D615">
+        <v>1.8195439360000001</v>
+      </c>
+    </row>
+    <row r="616" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C616" s="31">
+        <v>2.895974732</v>
+      </c>
+      <c r="D616" s="31">
+        <v>2.2600713880000001</v>
+      </c>
+    </row>
+    <row r="617" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C617">
+        <v>3.1616674119999999</v>
+      </c>
+      <c r="D617">
+        <v>2.4265112609999999</v>
+      </c>
+    </row>
+    <row r="618" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C618" s="31">
+        <v>1.9138138520000001</v>
+      </c>
+      <c r="D618" s="31">
+        <v>1.716003344</v>
+      </c>
+    </row>
+    <row r="619" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C619">
+        <v>2.7895807119999998</v>
+      </c>
+      <c r="D619">
+        <v>2.3384564939999999</v>
+      </c>
+    </row>
+    <row r="620" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C620" s="31">
+        <v>2.6222140230000002</v>
+      </c>
+      <c r="D620" s="31">
+        <v>2.195899652</v>
+      </c>
+    </row>
+    <row r="621" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C621" s="32">
+        <v>0.77815124999999996</v>
+      </c>
+      <c r="D621" s="32">
+        <v>0.77815124999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E911C072-D56F-4DCD-845D-13E02C998EF8}">
   <dimension ref="B2:M95"/>
   <sheetViews>
